--- a/My TestCases.xlsx
+++ b/My TestCases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liliaosipova/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liliaosipova/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C3EB7DB-36FB-794D-8FB8-57B154DD0312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44DA945-C46F-FC4E-B47E-4605207A046B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16020" xr2:uid="{E81D945D-7499-6045-989B-BEEB47B32FAF}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15760" activeTab="1" xr2:uid="{E81D945D-7499-6045-989B-BEEB47B32FAF}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4605" uniqueCount="2716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5824" uniqueCount="3413">
   <si>
     <t>FORGOT PASSWORD</t>
   </si>
@@ -8205,12 +8205,2103 @@
   <si>
     <t>Столбец1</t>
   </si>
+  <si>
+    <t>Тести для модального вікна для email-підтвердження</t>
+  </si>
+  <si>
+    <t>Testing a modal window for email confirmation is crucial to ensure that users have a seamless and secure experience when verifying their email addresses. Here are some test scenarios for a modal window used for email confirmation:</t>
+  </si>
+  <si>
+    <t>Тестування модального вікна для підтвердження електронної пошти має вирішальне значення для забезпечення безперебійної та безпечної роботи користувачів при перевірці їхніх електронних адрес. Ось кілька тестових сценаріїв для модального вікна, що використовується для підтвердження електронної пошти:</t>
+  </si>
+  <si>
+    <t>Test Case 1: Modal Display Trigger</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 1: Тригер модального відображення</t>
+  </si>
+  <si>
+    <t>Successfully register or initiate an email confirmation.</t>
+  </si>
+  <si>
+    <t>Успішна реєстрація або ініціювання підтвердження електронної пошти.</t>
+  </si>
+  <si>
+    <t>Confirm that the modal window for email confirmation is triggered and displayed promptly after the registration process.</t>
+  </si>
+  <si>
+    <t>Підтвердження того, що модальне вікно для підтвердження електронної пошти спрацьовує і відображається одразу після процесу реєстрації.</t>
+  </si>
+  <si>
+    <t>Test Case 2: Modal Content</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 2: Модальний контент</t>
+  </si>
+  <si>
+    <t>Access the modal window.</t>
+  </si>
+  <si>
+    <t>Доступ до модального вікна.</t>
+  </si>
+  <si>
+    <t>Verify that the modal contains clear and concise information about the email confirmation, including instructions and a call-to-action.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що модальне вікно містить чітку та стислу інформацію про підтвердження електронною поштою, включаючи інструкції та заклик до дії.</t>
+  </si>
+  <si>
+    <t>Test Case 3: Close Modal</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 3: Закриття модального вікна</t>
+  </si>
+  <si>
+    <t>Attempt to close the modal window using various methods (close button, clicking outside the modal, etc.).</t>
+  </si>
+  <si>
+    <t>Спробуйте закрити модальне вікно різними способами (кнопка закриття, клік за межами модального вікна тощо).</t>
+  </si>
+  <si>
+    <t>Confirm that the modal can be closed without any issues, and closing it does not result in unintended consequences.</t>
+  </si>
+  <si>
+    <t>Підтвердження того, що модальне вікно можна закрити без проблем, і його закриття не призводить до непередбачуваних наслідків.</t>
+  </si>
+  <si>
+    <t>Test Case 4: Resizable Modal</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 4: Модальне вікно зі змінним розміром</t>
+  </si>
+  <si>
+    <t>Attempt to resize the modal window (if applicable).</t>
+  </si>
+  <si>
+    <t>Спробуйте змінити розмір модального вікна (якщо це можливо).</t>
+  </si>
+  <si>
+    <t>Verify that the modal maintains a visually appealing and functional layout when resized.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що модальне вікно зберігає візуально привабливий і функціональний вигляд при зміні розміру.</t>
+  </si>
+  <si>
+    <t>Test Case 5: Modal Responsiveness</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 5: Чутливість модального вікна</t>
+  </si>
+  <si>
+    <t>Access the modal window on various devices (desktop, tablet, and mobile).</t>
+  </si>
+  <si>
+    <t>Доступ до модального вікна на різних пристроях (десктоп, планшет і мобільний).</t>
+  </si>
+  <si>
+    <t>Confirm that the modal is responsive and provides a user-friendly experience on different screen sizes.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що модальне вікно є адаптивним і забезпечує зручність використання на різних розмірах екрану.</t>
+  </si>
+  <si>
+    <t>Test Case 6: Visual Design</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 6: Візуальний дизайн</t>
+  </si>
+  <si>
+    <t>Review the visual design of the modal window.</t>
+  </si>
+  <si>
+    <t>Перегляньте візуальний дизайн модального вікна.</t>
+  </si>
+  <si>
+    <t>Confirm that the modal adheres to the overall design standards of the website, including color schemes, fonts, and styling.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що модальне вікно відповідає загальним стандартам дизайну веб-сайту, включаючи колірні схеми, шрифти та стилістику.</t>
+  </si>
+  <si>
+    <t>Test Case 7: Button Functionality</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 7: Функціональність кнопок</t>
+  </si>
+  <si>
+    <t>Interact with buttons within the modal (e.g., confirmation button, cancel button).</t>
+  </si>
+  <si>
+    <t>Взаємодія з кнопками в модальному вікні (наприклад, кнопка підтвердження, кнопка скасування).</t>
+  </si>
+  <si>
+    <t>Verify that buttons function as intended, initiating the email confirmation process or closing the modal as appropriate.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що кнопки функціонують належним чином, ініціюючи процес підтвердження електронною поштою або закриваючи модальне вікно відповідно.</t>
+  </si>
+  <si>
+    <t>Test Case 8: Email Link</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 8: Посилання на електронну пошту</t>
+  </si>
+  <si>
+    <t>If the modal contains an email verification link, click on the link.</t>
+  </si>
+  <si>
+    <t>Якщо модальне вікно містить посилання на підтвердження електронної пошти, натисніть на нього.</t>
+  </si>
+  <si>
+    <t>Confirm that clicking the link redirects users to the appropriate page for email verification.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що при натисканні на посилання користувач перенаправляється на відповідну сторінку для підтвердження електронної пошти.</t>
+  </si>
+  <si>
+    <t>Test Case 9: Timeout Handling</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 9: Обробка таймауту</t>
+  </si>
+  <si>
+    <t>Wait for an extended period without interacting with the modal.</t>
+  </si>
+  <si>
+    <t>Зачекайте тривалий час, не взаємодіючи з модальним вікном.</t>
+  </si>
+  <si>
+    <t>Verify that the modal handles timeouts appropriately, preventing users from being stuck on the modal indefinitely.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що модальне вікно обробляє таймаут належним чином, не дозволяючи користувачам застрягти на модальному вікні на невизначений час.</t>
+  </si>
+  <si>
+    <t>Intentionally enter incorrect or expired confirmation details.</t>
+  </si>
+  <si>
+    <t>Навмисно введіть невірні або прострочені дані для підтвердження.</t>
+  </si>
+  <si>
+    <t>Confirm that appropriate error messages are displayed, guiding users to correct any issues with the email confirmation.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що відображаються відповідні повідомлення про помилки, які допомагають користувачам виправити будь-які проблеми з підтвердженням електронною поштою.</t>
+  </si>
+  <si>
+    <t>Test the modal for accessibility compliance, including keyboard navigation and screen reader support.</t>
+  </si>
+  <si>
+    <t>Перевірте модальне вікно на відповідність вимогам доступності, включно з клавіатурною навігацією та підтримкою зчитування з екрану.</t>
+  </si>
+  <si>
+    <t>Ensure that users with disabilities can access and understand the content within the modal.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі з обмеженими можливостями можуть отримати доступ до контенту в модальному режимі та зрозуміти його.</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 12: Крос-браузерна сумісність</t>
+  </si>
+  <si>
+    <t>Test the modal's functionality and appearance in different web browsers (e.g., Chrome, Firefox, Safari, Edge).</t>
+  </si>
+  <si>
+    <t>Протестуйте функціональність і зовнішній вигляд модального вікна в різних веб-браузерах (наприклад, Chrome, Firefox, Safari, Edge).</t>
+  </si>
+  <si>
+    <t>Verify that the modal works consistently across various browsers without display issues.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що модальне вікно працює стабільно в різних браузерах без проблем з відображенням.</t>
+  </si>
+  <si>
+    <t>Test the modal with different language settings, if applicable.</t>
+  </si>
+  <si>
+    <t>Протестуйте модальне вікно з різними мовними налаштуваннями, якщо це можливо.</t>
+  </si>
+  <si>
+    <t>Ensure that the modal adapts correctly to different languages, providing clear and accurate information for email confirmation.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що модальне вікно правильно адаптується до різних мов, надаючи чітку і точну інформацію для підтвердження електронною поштою.</t>
+  </si>
+  <si>
+    <t>Test Case 14: Security</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 14: Безпека</t>
+  </si>
+  <si>
+    <t>Review the modal for any security vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Перевірте модальне вікно на наявність вразливостей безпеки.</t>
+  </si>
+  <si>
+    <t>Confirm that the modal and the email confirmation process are secure, protecting user information and preventing unauthorized access.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що модальне вікно та процес підтвердження електронною поштою є безпечними, захищаючи інформацію користувача та запобігаючи несанкціонованому доступу.</t>
+  </si>
+  <si>
+    <t>By conducting these test scenarios, you can ensure that the modal window for email confirmation functions reliably, providing users with a smooth and secure experience during the email verification process.</t>
+  </si>
+  <si>
+    <t>Провівши ці тестові сценарії, ви зможете переконатися, що модальне вікно для підтвердження електронної пошти працює надійно, забезпечуючи користувачам безперебійну і безпечну роботу під час процесу перевірки електронної пошти.</t>
+  </si>
+  <si>
+    <t>Тести для додавання товару до списку бажань при натисканні на знак серця</t>
+  </si>
+  <si>
+    <t>Testing the functionality of adding a product to the wishlist when clicking on the heart sign involves ensuring a smooth and reliable user experience. Here are some test scenarios for adding a product to the wishlist:</t>
+  </si>
+  <si>
+    <t>Тестування функціональності додавання товару до списку бажань при натисканні на знак серця передбачає забезпечення безперебійної та надійної роботи користувача. Ось кілька тестових сценаріїв для додавання товару до списку бажань:</t>
+  </si>
+  <si>
+    <t>Test Case 1: Heart Sign Visibility</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 1: Видимість знаку серця</t>
+  </si>
+  <si>
+    <t>Navigate to a product page.</t>
+  </si>
+  <si>
+    <t>Перехід на сторінку товару.</t>
+  </si>
+  <si>
+    <t>Confirm that the heart sign (wishlist icon) is visible and appropriately located on the product page.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що знак серця (іконка списку бажань) видимий і правильно розташований на сторінці товару.</t>
+  </si>
+  <si>
+    <t>Test Case 2: Adding to Wishlist</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 2: Додавання до списку бажань</t>
+  </si>
+  <si>
+    <t>Click on the heart sign to add the product to the wishlist.</t>
+  </si>
+  <si>
+    <t>Натисніть на знак серця, щоб додати товар до списку бажань.</t>
+  </si>
+  <si>
+    <t>Verify that the product is successfully added to the wishlist. The heart sign may change its appearance to indicate that the product is now in the wishlist.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що товар успішно додано до списку бажань. Значок серця може змінити свій вигляд, щоб показати, що товар тепер у списку бажань.</t>
+  </si>
+  <si>
+    <t>Test Case 3: Wishlist Count Update</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 3: Оновлення кількості товарів у списку бажань</t>
+  </si>
+  <si>
+    <t>Check the wishlist count, if visible.</t>
+  </si>
+  <si>
+    <t>Перевірте кількість товарів у списку бажань, якщо вона відображається.</t>
+  </si>
+  <si>
+    <t>Confirm that the wishlist count is updated to reflect the addition of the product. If the count is not visible, ensure there's a visual indication that the product has been added.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що лічильник бажань оновлено, щоб відобразити додавання товару. Якщо лічильник не відображається, переконайтеся, що є візуальна індикація того, що товар було додано.</t>
+  </si>
+  <si>
+    <t>Test Case 4: Removing from Wishlist</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 4: Видалення зі списку бажань</t>
+  </si>
+  <si>
+    <t>If the product is already in the wishlist, click on the heart sign again.</t>
+  </si>
+  <si>
+    <t>Якщо товар вже є в списку бажань, натисніть на значок з сердечком ще раз.</t>
+  </si>
+  <si>
+    <t>Verify that the product is removed from the wishlist. The appearance of the heart sign may revert to its original state.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що товар видалено зі списку бажань. Вигляд сердечка може повернутися до початкового стану.</t>
+  </si>
+  <si>
+    <t>Test Case 5: Wishlist Page Navigation</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 5: Навігація по сторінці списку бажань</t>
+  </si>
+  <si>
+    <t>Navigate to the wishlist page.</t>
+  </si>
+  <si>
+    <t>Перехід на сторінку списку бажань.</t>
+  </si>
+  <si>
+    <t>Confirm that the product added to the wishlist is visible on the wishlist page with accurate details.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що товар, доданий до списку бажань, відображається на сторінці списку бажань з точними деталями.</t>
+  </si>
+  <si>
+    <t>Test Case 6: Wishlist Persistence</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 6: Персистентність списку бажань</t>
+  </si>
+  <si>
+    <t>Log out and log back in.</t>
+  </si>
+  <si>
+    <t>Вийдіть з системи та увійдіть знову.</t>
+  </si>
+  <si>
+    <t>Ensure that the product added to the wishlist is still present and persisted across user sessions.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що продукт, доданий до списку бажань, все ще присутній і зберігається в усіх сеансах користувача.</t>
+  </si>
+  <si>
+    <t>Test Case 7: Multiple Products in Wishlist</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 7: Кілька товарів у списку бажань</t>
+  </si>
+  <si>
+    <t>Add multiple products to the wishlist.</t>
+  </si>
+  <si>
+    <t>Додайте кілька товарів до списку бажань.</t>
+  </si>
+  <si>
+    <t>Confirm that each product is accurately added to the wishlist, and the count is updated accordingly.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що кожен товар точно доданий до списку бажань, і кількість товарів у ньому відповідно оновлена.</t>
+  </si>
+  <si>
+    <t>Test Case 8: Wishlist Icon Feedback</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 8: Зворотній зв'язок з іконкою списку бажань</t>
+  </si>
+  <si>
+    <t>Hover over the heart sign without clicking.</t>
+  </si>
+  <si>
+    <t>Наведіть курсор миші на значок серця, не натискаючи.</t>
+  </si>
+  <si>
+    <t>Verify that there is feedback (e.g., tooltip) indicating the purpose of the heart sign (adding to wishlist).</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що є зворотній зв'язок (наприклад, підказка), що вказує на призначення значка серця (додавання до списку бажань).</t>
+  </si>
+  <si>
+    <t>Test Case 9: Responsiveness</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 9: Чуйність</t>
+  </si>
+  <si>
+    <t>Access the product page on various devices (desktop, tablet, and mobile).</t>
+  </si>
+  <si>
+    <t>Доступ до сторінки продукту на різних пристроях (настільних, планшетних та мобільних).</t>
+  </si>
+  <si>
+    <t>Confirm that the functionality to add to the wishlist is responsive and provides a consistent user experience.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що функціонал додавання до списку бажань є адаптивним і забезпечує послідовний користувацький досвід.</t>
+  </si>
+  <si>
+    <t>Тестовий кейс 10: Обробка помилок</t>
+  </si>
+  <si>
+    <t>Intentionally attempt to add a product to the wishlist with invalid or missing information.</t>
+  </si>
+  <si>
+    <t>Навмисна спроба додати товар до списку бажань з невірною або відсутньою інформацією.</t>
+  </si>
+  <si>
+    <t>Confirm that appropriate error messages are displayed, guiding users to correct any issues.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що відображаються відповідні повідомлення про помилки, які допомагають користувачам виправити будь-які проблеми.</t>
+  </si>
+  <si>
+    <t>Test the functionality on different web browsers (e.g., Chrome, Firefox, Safari, Edge).</t>
+  </si>
+  <si>
+    <t>Перевірте функціональність на різних веб-браузерах (наприклад, Chrome, Firefox, Safari, Edge).</t>
+  </si>
+  <si>
+    <t>Verify that adding products to the wishlist works consistently across various browsers without issues.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що додавання товарів до списку бажань працює без проблем у різних браузерах.</t>
+  </si>
+  <si>
+    <t>Test the functionality for accessibility compliance, including keyboard navigation and screen reader support.</t>
+  </si>
+  <si>
+    <t>Перевірте функціональність на відповідність вимогам доступності, включаючи клавіатурну навігацію та підтримку зчитування з екрану.</t>
+  </si>
+  <si>
+    <t>Ensure that users with disabilities can interact with and understand the process of adding products to the wishlist.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі з обмеженими можливостями можуть взаємодіяти з процесом додавання товарів до списку бажань і розуміти його.</t>
+  </si>
+  <si>
+    <t>Test Case 13: Integration with User Account</t>
+  </si>
+  <si>
+    <t>Тестовий кейс 13: Інтеграція з обліковим записом користувача</t>
+  </si>
+  <si>
+    <t>Check if adding products to the wishlist is integrated with the user account.</t>
+  </si>
+  <si>
+    <t>Перевірте, чи додавання товарів до списку бажань інтегровано з обліковим записом користувача.</t>
+  </si>
+  <si>
+    <t>Confirm that the wishlist is associated with the user account and is accessible across different sessions.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що список бажань пов'язаний з обліковим записом користувача і доступний в різних сеансах.</t>
+  </si>
+  <si>
+    <t>Test Case 14: Performance</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 14: Продуктивність</t>
+  </si>
+  <si>
+    <t>Add and remove multiple products rapidly.</t>
+  </si>
+  <si>
+    <t>Швидко додайте та видаліть кілька товарів.</t>
+  </si>
+  <si>
+    <t>Ensure that the functionality performs well, even under conditions of rapid user interactions.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що функціонал працює добре, навіть в умовах швидкої взаємодії користувачів.</t>
+  </si>
+  <si>
+    <t>Test Case 15: Analytics Tracking</t>
+  </si>
+  <si>
+    <t>Тестовий кейс 15: Відстеження аналітики</t>
+  </si>
+  <si>
+    <t>Verify if there is analytics tracking for adding products to the wishlist.</t>
+  </si>
+  <si>
+    <t>Перевірте, чи є відстеження аналітики для додавання товарів до списку бажань.</t>
+  </si>
+  <si>
+    <t>Confirm that data related to adding products to the wishlist is accurately recorded for analytics purposes.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що дані, пов'язані з додаванням товарів до списку бажань, точно реєструються для цілей аналітики.</t>
+  </si>
+  <si>
+    <t>By performing these test scenarios, you can ensure that the "heart sign" functionality for adding products to the wishlist is robust, user-friendly, and enhances the overall shopping experience.</t>
+  </si>
+  <si>
+    <t>Виконуючи ці тестові сценарії, ви можете переконатися, що функція "знак серця" для додавання товарів до списку бажань є надійною, зручною для користувача і покращує загальний досвід покупок.</t>
+  </si>
+  <si>
+    <t>тести для категорії та підкатегорії Анімація</t>
+  </si>
+  <si>
+    <t>Testing the Animation category and its subcategories involves ensuring that users can effectively navigate, view, and interact with animated content on the website. Here are some test scenarios for the Animation category and subcategory:</t>
+  </si>
+  <si>
+    <t>Тестування категорії "Анімація" та її підкатегорій полягає в тому, щоб переконатися, що користувачі можуть ефективно переміщатися, переглядати та взаємодіяти з анімаційним контентом на сайті. Ось кілька тестових сценаріїв для категорії та підкатегорії "Анімація":</t>
+  </si>
+  <si>
+    <t>Test Case 1: Navigation to Animation Category</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 1: Перехід до категорії "Анімація</t>
+  </si>
+  <si>
+    <t>Navigate to the Animation category from the main menu or designated section.</t>
+  </si>
+  <si>
+    <t>Перехід до категорії "Анімація" з головного меню або відповідного розділу.</t>
+  </si>
+  <si>
+    <t>Confirm that users are directed to the Animation category page.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі потрапляють на сторінку категорії "Анімація".</t>
+  </si>
+  <si>
+    <t>Test Case 2: Subcategory Navigation</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 2: Перехід до підкатегорії</t>
+  </si>
+  <si>
+    <t>Click on a specific subcategory within Animation (e.g., 2D Animation, 3D Animation).</t>
+  </si>
+  <si>
+    <t>Натисніть на певну підкатегорію в розділі Анімація (наприклад, 2D-анімація, 3D-анімація).</t>
+  </si>
+  <si>
+    <t>Verify that users are directed to the selected subcategory page, displaying relevant content.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі потрапляють на сторінку обраної підкатегорії, де відображається відповідний контент.</t>
+  </si>
+  <si>
+    <t>Test Case 3: Subcategory Listing</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 3: Список підкатегорій</t>
+  </si>
+  <si>
+    <t>Review the list of animated content within a subcategory.</t>
+  </si>
+  <si>
+    <t>Перегляньте список анімованого контенту в підкатегорії.</t>
+  </si>
+  <si>
+    <t>Confirm that the content is accurately categorized and displayed under the chosen subcategory.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що контент точно класифікований і відображається у вибраній підкатегорії.</t>
+  </si>
+  <si>
+    <t>Test Case 4: Filtering Options</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 4: Параметри фільтрації</t>
+  </si>
+  <si>
+    <t>Check for filtering options (e.g., sorting by date, popularity, rating) within a subcategory.</t>
+  </si>
+  <si>
+    <t>Перевірте наявність параметрів фільтрації (наприклад, сортування за датою, популярністю, рейтингом) у підкатегорії.</t>
+  </si>
+  <si>
+    <t>Verify that filtering options work as expected, allowing users to refine their search for animated content.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що параметри фільтрації працюють належним чином, дозволяючи користувачам уточнити пошук анімованого контенту.</t>
+  </si>
+  <si>
+    <t>Test Case 5: Animation Preview</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 5: Попередній перегляд анімації</t>
+  </si>
+  <si>
+    <t>Click on an animated content item to view a preview.</t>
+  </si>
+  <si>
+    <t>Натисніть на анімований елемент контенту, щоб переглянути попередній перегляд.</t>
+  </si>
+  <si>
+    <t>Confirm that users can preview animated content, and the preview provides an accurate representation of the animation.</t>
+  </si>
+  <si>
+    <t>Підтвердження того, що користувачі можуть переглядати анімований контент, і що попередній перегляд забезпечує точне представлення анімації.</t>
+  </si>
+  <si>
+    <t>Test Case 6: Adding to Favorites</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 6: Додавання до вибраного</t>
+  </si>
+  <si>
+    <t>Check if there is an option to add animated content to favorites or a watchlist.</t>
+  </si>
+  <si>
+    <t>Перевірте, чи є можливість додавання анімованого контенту до обраного або до списку перегляду.</t>
+  </si>
+  <si>
+    <t>Verify that users can add animations to their favorites or watchlist for easy access later.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі можуть додавати анімацію до обраного або списку перегляду для легкого доступу до неї пізніше.</t>
+  </si>
+  <si>
+    <t>Test Case 7: Play/Pause Functionality</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 7: Функція відтворення/паузи</t>
+  </si>
+  <si>
+    <t>Click on the play button to start an animated video.</t>
+  </si>
+  <si>
+    <t>Натисніть на кнопку відтворення, щоб запустити анімаційне відео.</t>
+  </si>
+  <si>
+    <t>Confirm that the play/pause functionality works as expected, allowing users to control the playback of animated content.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що функція відтворення/паузи працює належним чином, дозволяючи користувачам керувати відтворенням анімованого контенту.</t>
+  </si>
+  <si>
+    <t>Test Case 8: Full-Screen Mode</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 8: Повноекранний режим</t>
+  </si>
+  <si>
+    <t>Check if there is an option to view animated content in full-screen mode.</t>
+  </si>
+  <si>
+    <t>Перевірте, чи є можливість переглядати анімований контент у повноекранному режимі.</t>
+  </si>
+  <si>
+    <t>Verify that full-screen mode works properly, providing an immersive experience for users.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що повноекранний режим працює належним чином, забезпечуючи повне занурення для користувачів.</t>
+  </si>
+  <si>
+    <t>Test Case 9: Responsive Design</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 9: Адаптивний дизайн</t>
+  </si>
+  <si>
+    <t>Access the Animation category and subcategories on various devices (desktop, tablet, and mobile).</t>
+  </si>
+  <si>
+    <t>Доступ до категорії "Анімація" та підкатегорій на різних пристроях (настільних, планшетних та мобільних).</t>
+  </si>
+  <si>
+    <t>Confirm that the layout is responsive and provides a user-friendly experience on different screen sizes.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що макет є адаптивним і забезпечує зручність користування на різних розмірах екрану.</t>
+  </si>
+  <si>
+    <t>Test Case 10: Page Loading Performance</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 10: Швидкість завантаження сторінки</t>
+  </si>
+  <si>
+    <t>Load the Animation category and subcategory pages.</t>
+  </si>
+  <si>
+    <t>Завантажте сторінки категорії "Анімація" та підкатегорії.</t>
+  </si>
+  <si>
+    <t>Ensure that pages load efficiently, and animated content is displayed without significant delays.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що сторінки завантажуються ефективно, а анімований контент відображається без значних затримок.</t>
+  </si>
+  <si>
+    <t>Test Case 11: Interaction with Comments</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 11: Взаємодія з коментарями</t>
+  </si>
+  <si>
+    <t>Check if there is a comments section for animated content.</t>
+  </si>
+  <si>
+    <t>Перевірте, чи є розділ коментарів до анімованого контенту.</t>
+  </si>
+  <si>
+    <t>Verify that users can interact with comments, leave feedback, and engage in discussions related to the animated content.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі можуть взаємодіяти з коментарями, залишати відгуки та брати участь в обговореннях, пов'язаних з анімованим контентом.</t>
+  </si>
+  <si>
+    <t>Test Case 12: Social Sharing</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 12: Соціальний обмін</t>
+  </si>
+  <si>
+    <t>Check if there are options for users to share animated content on social media.</t>
+  </si>
+  <si>
+    <t>Перевірте, чи є у користувачів можливість ділитися анімованим контентом у соціальних мережах.</t>
+  </si>
+  <si>
+    <t>Confirm that social sharing options work correctly, allowing users to share their favorite animations with others.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що опції соціального обміну працюють коректно, дозволяючи користувачам ділитися своїми улюбленими анімаціями з іншими.</t>
+  </si>
+  <si>
+    <t>Test the Animation category and subcategories for accessibility compliance, including keyboard navigation and screen reader support.</t>
+  </si>
+  <si>
+    <t>Перевірте категорію "Анімація" та підкатегорії на відповідність вимогам доступності, включаючи клавіатурну навігацію та підтримку зчитування з екрану.</t>
+  </si>
+  <si>
+    <t>Ensure that users with disabilities can access and interact with animated content on the website.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі з обмеженими можливостями можуть отримати доступ до анімаційного контенту на веб-сайті та взаємодіяти з ним.</t>
+  </si>
+  <si>
+    <t>Test the Animation category and subcategories on different web browsers (e.g., Chrome, Firefox, Safari, Edge).</t>
+  </si>
+  <si>
+    <t>Протестуйте категорію та підкатегорії "Анімація" в різних веб-браузерах (наприклад, Chrome, Firefox, Safari, Edge).</t>
+  </si>
+  <si>
+    <t>Verify that the functionality works consistently across various browsers without display issues.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що функціонал працює узгоджено в різних браузерах без проблем з відображенням.</t>
+  </si>
+  <si>
+    <t>Test Case 15: Integration with User Profiles</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 15: Інтеграція з профілями користувачів</t>
+  </si>
+  <si>
+    <t>Check if user profiles store information about animated content preferences and history.</t>
+  </si>
+  <si>
+    <t>Перевірте, чи зберігають профілі користувачів інформацію про налаштування та історію анімованого контенту.</t>
+  </si>
+  <si>
+    <t>Confirm that the Animation category integrates seamlessly with user profiles, providing a personalized experience for users.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що категорія "Анімація" безперешкодно інтегрується з профілями користувачів, забезпечуючи персоналізований досвід для користувачів.</t>
+  </si>
+  <si>
+    <t>By conducting these test scenarios, you can ensure that the Animation category and its subcategories deliver a seamless and enjoyable experience for users interested in animated content on the website.</t>
+  </si>
+  <si>
+    <t>За допомогою цих тестових сценаріїв ви можете переконатися, що категорія "Анімація" та її підкатегорії забезпечують безперебійний і приємний досвід для користувачів, зацікавлених в анімаційному контенті на веб-сайті.</t>
+  </si>
+  <si>
+    <t>Тести для анімації картки категорії та підкатегорії</t>
+  </si>
+  <si>
+    <t>Testing category cards and subcategory cards with animations involves ensuring that the visual elements and animations contribute to a positive user experience. Here are some test scenarios for category card and subcategory card animations:</t>
+  </si>
+  <si>
+    <t>Тестування карток категорій і підкатегорій з анімацією передбачає перевірку того, що візуальні елементи та анімація сприяють позитивному користувацькому досвіду. Ось кілька тестових сценаріїв для анімації карток категорій і підкатегорій:</t>
+  </si>
+  <si>
+    <t>Test Case 1: Initial Card Load</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 1: Початкове завантаження картки</t>
+  </si>
+  <si>
+    <t>Load the page containing category cards and subcategory cards.</t>
+  </si>
+  <si>
+    <t>Завантажте сторінку, що містить картки категорій та підкатегорій.</t>
+  </si>
+  <si>
+    <t>Confirm that the cards load smoothly, and animations (if any) do not cause lag or delays in rendering.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що картки завантажуються плавно, а анімації (якщо такі є) не викликають затримок у рендерингу.</t>
+  </si>
+  <si>
+    <t>Test Case 2: Animation Trigger</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 2: Тригер анімації</t>
+  </si>
+  <si>
+    <t>Hover over a category card or subcategory card.</t>
+  </si>
+  <si>
+    <t>Наведіть курсор на картку категорії або підкатегорії.</t>
+  </si>
+  <si>
+    <t>Verify that animations are triggered appropriately when the user hovers over the card. This may include subtle movements or color changes.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що анімація запускається належним чином, коли користувач наводить курсор на картку. Це може включати ледь помітні рухи або зміну кольору.</t>
+  </si>
+  <si>
+    <t>Test Case 3: Animation Duration</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 3: Тривалість анімації</t>
+  </si>
+  <si>
+    <t>Observe the duration of animations on category and subcategory cards.</t>
+  </si>
+  <si>
+    <t>Поспостерігайте за тривалістю анімації на картках категорій та підкатегорій.</t>
+  </si>
+  <si>
+    <t>Ensure that animations are not excessively long or too short, striking a balance that adds a visually appealing element without being distracting.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що анімації не надто довгі або занадто короткі, дотримуючись балансу, який додає візуально привабливий елемент, але не відволікає.</t>
+  </si>
+  <si>
+    <t>Test Case 4: Responsiveness</t>
+  </si>
+  <si>
+    <t>Тестовий кейс 4: Адаптивність</t>
+  </si>
+  <si>
+    <t>Test the category and subcategory cards on various devices (desktop, tablet, and mobile).</t>
+  </si>
+  <si>
+    <t>Протестуйте картки категорій та підкатегорій на різних пристроях (настільних, планшетних та мобільних).</t>
+  </si>
+  <si>
+    <t>Confirm that the animations adapt responsively, providing a smooth experience on different screen sizes.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що анімація адаптується, забезпечуючи плавне відтворення на різних розмірах екрану.</t>
+  </si>
+  <si>
+    <t>Test Case 5: Animation Consistency</t>
+  </si>
+  <si>
+    <t>Тестовий кейс 5: Узгодженість анімації</t>
+  </si>
+  <si>
+    <t>Interact with multiple category cards and subcategory cards.</t>
+  </si>
+  <si>
+    <t>Взаємодія з кількома картками категорій та підкатегорій.</t>
+  </si>
+  <si>
+    <t>Ensure that the animation style and behavior are consistent across all cards, creating a unified and cohesive visual experience.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що стиль і поведінка анімації узгоджуються на всіх картках, створюючи єдиний і цілісний візуальний досвід.</t>
+  </si>
+  <si>
+    <t>Test Case 6: Animation Reversal</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 6: Реверс анімації</t>
+  </si>
+  <si>
+    <t>Hover over a card and then move the cursor away.</t>
+  </si>
+  <si>
+    <t>Наведіть курсор на картку, а потім відведіть його.</t>
+  </si>
+  <si>
+    <t>Verify that the animation smoothly reverses to its original state when the user stops hovering over the card.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що анімація плавно повертається до початкового стану, коли користувач прибирає наведення на картку.</t>
+  </si>
+  <si>
+    <t>Test Case 7: Multiple Simultaneous Animations</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 7: Кілька одночасних анімацій</t>
+  </si>
+  <si>
+    <t>Hover over multiple category or subcategory cards simultaneously.</t>
+  </si>
+  <si>
+    <t>Наведіть вказівник миші на декілька карток категорій або підкатегорій одночасно.</t>
+  </si>
+  <si>
+    <t>Confirm that the animations run independently for each card without interfering or causing unexpected behavior.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що анімації запускаються незалежно для кожної картки, не втручаючись і не викликаючи неочікуваної поведінки.</t>
+  </si>
+  <si>
+    <t>Test Case 8: Animation Interruption</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 8: Переривання анімації</t>
+  </si>
+  <si>
+    <t>Quickly move the cursor in and out of a card multiple times.</t>
+  </si>
+  <si>
+    <t>Кілька разів швидко перемістіть курсор всередину та ззовні картки.</t>
+  </si>
+  <si>
+    <t>Ensure that the animations handle rapid interactions gracefully, preventing interruptions or glitches.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що анімація витончено обробляє швидкі взаємодії, запобігаючи перериванням або збоям.</t>
+  </si>
+  <si>
+    <t>Test Case 9: Animation Impact on Card Content</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 9: Вплив анімації на вміст картки</t>
+  </si>
+  <si>
+    <t>Observe how the animation affects the readability of card content.</t>
+  </si>
+  <si>
+    <t>Поспостерігайте, як анімація впливає на читабельність вмісту картки.</t>
+  </si>
+  <si>
+    <t>Confirm that the animation enhances the visual appeal without compromising the legibility or accessibility of the card information.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що анімація покращує візуальну привабливість без шкоди для читабельності або доступності інформації на картці.</t>
+  </si>
+  <si>
+    <t>Test Case 10: Card Click Interaction</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 10: Взаємодія при кліці на картку</t>
+  </si>
+  <si>
+    <t>Click on a category card or subcategory card.</t>
+  </si>
+  <si>
+    <t>Натисніть на картку категорії або підкатегорії.</t>
+  </si>
+  <si>
+    <t>Verify that the card responds appropriately to the click, and any associated animations (e.g., card expansion) occur smoothly.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що картка належним чином реагує на клік, а пов'язана з ним анімація (наприклад, розгортання картки) відбувається плавно.</t>
+  </si>
+  <si>
+    <t>Test Case 11: Animation Options</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 11: Параметри анімації</t>
+  </si>
+  <si>
+    <t>Check if there are options for users to control or customize the card animations (if applicable).</t>
+  </si>
+  <si>
+    <t>Перевірте, чи є у користувача можливість контролювати або налаштовувати анімацію картки (якщо це можливо).</t>
+  </si>
+  <si>
+    <t>Confirm that users can adjust animation preferences according to their preferences.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі можуть налаштувати параметри анімації відповідно до своїх уподобань.</t>
+  </si>
+  <si>
+    <t>Test the category and subcategory cards for accessibility compliance, including keyboard navigation and screen reader support.</t>
+  </si>
+  <si>
+    <t>Перевірте картки категорій і підкатегорій на відповідність вимогам доступності, включаючи клавіатурну навігацію і підтримку зчитування з екрану.</t>
+  </si>
+  <si>
+    <t>Ensure that users with disabilities can interact with and understand the card content, including any associated animations.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі з обмеженими можливостями можуть взаємодіяти і розуміти вміст картки, включаючи будь-яку пов'язану з нею анімацію.</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 13: Крос-браузерна сумісність</t>
+  </si>
+  <si>
+    <t>Test the category and subcategory cards on different web browsers (e.g., Chrome, Firefox, Safari, Edge).</t>
+  </si>
+  <si>
+    <t>Протестуйте картки категорій та підкатегорій у різних веб-браузерах (наприклад, Chrome, Firefox, Safari, Edge).</t>
+  </si>
+  <si>
+    <t>Verify that the animations work consistently across various browsers without compatibility issues.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що анімація працює узгоджено в різних браузерах без проблем сумісності.</t>
+  </si>
+  <si>
+    <t>Test Case 14: Animation Integration with Card Content</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 14: Інтеграція анімації з вмістом картки</t>
+  </si>
+  <si>
+    <t>Confirm that animations seamlessly integrate with card content, enhancing the overall user experience.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що анімація безперешкодно інтегрується з вмістом картки, покращуючи загальний користувацький досвід.</t>
+  </si>
+  <si>
+    <t>Ensure that animations complement the card design without overshadowing or distracting from essential information.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що анімація доповнює дизайн картки, не затьмарюючи і не відволікаючи увагу від основної інформації.</t>
+  </si>
+  <si>
+    <t>Test Case 15: Performance Impact</t>
+  </si>
+  <si>
+    <t>Тестовий кейс 15: Вплив на продуктивність</t>
+  </si>
+  <si>
+    <t>Assess the performance impact of animations on the overall page loading time.</t>
+  </si>
+  <si>
+    <t>Оцініть вплив анімації на загальний час завантаження сторінки.</t>
+  </si>
+  <si>
+    <t>Confirm that the animations are optimized to prevent excessive loading times, especially in cases where multiple cards are present on a single page.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що анімація оптимізована таким чином, щоб запобігти надмірному завантаженню, особливо у випадках, коли на одній сторінці присутні кілька карток.</t>
+  </si>
+  <si>
+    <t>By conducting these test scenarios, you can ensure that the category card and subcategory card animations contribute positively to the user experience without introducing performance or usability issues.</t>
+  </si>
+  <si>
+    <t>За допомогою цих тестових сценаріїв ви можете переконатися, що анімації карток категорій і підкатегорій позитивно впливають на взаємодію з користувачем, не створюючи проблем з продуктивністю або юзабіліті.</t>
+  </si>
+  <si>
+    <t>тести для кошика</t>
+  </si>
+  <si>
+    <t>Testing the shopping cart is crucial to ensure a smooth and reliable checkout process. Here are some test scenarios for the shopping cart:</t>
+  </si>
+  <si>
+    <t>Тестування кошика має вирішальне значення для забезпечення безперебійного та надійного процесу оформлення замовлення. Ось кілька тестових сценаріїв для кошика:</t>
+  </si>
+  <si>
+    <t>Test Case 1: Add Product to Cart</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 1: Додавання товару до кошика</t>
+  </si>
+  <si>
+    <t>Add a product to the shopping cart.</t>
+  </si>
+  <si>
+    <t>Додайте товар до кошика.</t>
+  </si>
+  <si>
+    <t>Verify that the product is successfully added to the cart, and the cart icon or count is updated accordingly.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що товар успішно додано до кошика, а іконка кошика або його кількість відповідно оновлена.</t>
+  </si>
+  <si>
+    <t>Test Case 2: View Cart</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 2: Перегляд кошика</t>
+  </si>
+  <si>
+    <t>Click on the cart icon or navigate to the cart page.</t>
+  </si>
+  <si>
+    <t>Натисніть на іконку кошика або перейдіть на сторінку кошика.</t>
+  </si>
+  <si>
+    <t>Confirm that the cart page displays the added product(s) with accurate details, including names, quantities, and prices.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що на сторінці кошика відображаються додані товари з точною інформацією, включаючи назви, кількість і ціни.</t>
+  </si>
+  <si>
+    <t>Test Case 3: Update Quantity</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 3: Оновлення кількості</t>
+  </si>
+  <si>
+    <t>Change the quantity of a product in the cart.</t>
+  </si>
+  <si>
+    <t>Змініть кількість товару в кошику.</t>
+  </si>
+  <si>
+    <t>Verify that the cart updates the quantity and recalculates the total price accordingly.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що в кошику змінено кількість і відповідно перераховано загальну ціну.</t>
+  </si>
+  <si>
+    <t>Test Case 4: Remove Product from Cart</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 4: Видалення товару з кошика</t>
+  </si>
+  <si>
+    <t>Remove a product from the cart.</t>
+  </si>
+  <si>
+    <t>Видалити товар з кошика.</t>
+  </si>
+  <si>
+    <t>Confirm that the product is successfully removed, and the cart is updated accordingly.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що товар успішно видалено, а кошик відповідно оновлено.</t>
+  </si>
+  <si>
+    <t>Test Case 5: Empty Cart</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 5: Порожній кошик</t>
+  </si>
+  <si>
+    <t>Remove all products from the cart.</t>
+  </si>
+  <si>
+    <t>Видалити всі товари з кошика.</t>
+  </si>
+  <si>
+    <t>Ensure that the cart is empty, and appropriate messaging is displayed.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що кошик порожній, і відобразиться відповідне повідомлення.</t>
+  </si>
+  <si>
+    <t>Test Case 6: Continue Shopping</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 6: Продовження покупок</t>
+  </si>
+  <si>
+    <t>Click on the "Continue Shopping" button.</t>
+  </si>
+  <si>
+    <t>Натисніть на кнопку "Продовжити покупки".</t>
+  </si>
+  <si>
+    <t>Verify that users are directed back to the product catalog or the store without issues.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі без проблем повертаються до каталогу товарів або магазину.</t>
+  </si>
+  <si>
+    <t>Test Case 7: Cart Subtotal</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 7: Підсумок кошика</t>
+  </si>
+  <si>
+    <t>Check the subtotal displayed in the cart.</t>
+  </si>
+  <si>
+    <t>Перевірте проміжний підсумок, що відображається в кошику.</t>
+  </si>
+  <si>
+    <t>Confirm that the subtotal accurately reflects the total cost of the items in the cart.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що проміжний підсумок точно відображає загальну вартість товарів у кошику.</t>
+  </si>
+  <si>
+    <t>Test Case 8: Apply Coupon Code</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 8: Застосування коду купона</t>
+  </si>
+  <si>
+    <t>If the cart supports coupon codes, enter a valid coupon code.</t>
+  </si>
+  <si>
+    <t>Якщо кошик підтримує коди купонів, введіть дійсний код купона.</t>
+  </si>
+  <si>
+    <t>Verify that the discount is applied correctly, and the total reflects the discounted amount.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що знижка застосована правильно, а загальна сума відображає суму зі знижкою.</t>
+  </si>
+  <si>
+    <t>Test Case 9: View Product Details from Cart</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 9: Перегляд інформації про товар у кошику</t>
+  </si>
+  <si>
+    <t>Click on a product in the cart to view its details.</t>
+  </si>
+  <si>
+    <t>Натисніть на товар у кошику, щоб переглянути його деталі.</t>
+  </si>
+  <si>
+    <t>Confirm that users can view detailed information about the product without leaving the cart.</t>
+  </si>
+  <si>
+    <t>Підтвердження того, що користувачі можуть переглянути детальну інформацію про товар, не виходячи з кошика.</t>
+  </si>
+  <si>
+    <t>Test Case 10: Checkout Process Initiation</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 10: Ініціювання процесу оформлення замовлення</t>
+  </si>
+  <si>
+    <t>Initiate the checkout process from the cart.</t>
+  </si>
+  <si>
+    <t>Ініціюйте процес оформлення замовлення з кошика.</t>
+  </si>
+  <si>
+    <t>Confirm that users are directed to the checkout page or the first step of the checkout process.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі потрапляють на сторінку оформлення замовлення або на перший крок процесу оформлення замовлення.</t>
+  </si>
+  <si>
+    <t>Test Case 11: Guest Checkout</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 11: Оформлення замовлення гостем</t>
+  </si>
+  <si>
+    <t>Proceed with the checkout process without logging in (as a guest).</t>
+  </si>
+  <si>
+    <t>Запустіть процес оформлення замовлення без входу в систему (як гість).</t>
+  </si>
+  <si>
+    <t>Verify that users can successfully complete the checkout process without creating an account.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі можуть успішно завершити процес оформлення замовлення без створення облікового запису.</t>
+  </si>
+  <si>
+    <t>Test Case 12: User Authentication</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 12: Аутентифікація користувача</t>
+  </si>
+  <si>
+    <t>Log in to the account before or during the checkout process.</t>
+  </si>
+  <si>
+    <t>Увійдіть в обліковий запис до або під час оформлення замовлення.</t>
+  </si>
+  <si>
+    <t>Confirm that the cart and its contents are associated with the user account.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що кошик і його вміст пов'язані з обліковим записом користувача.</t>
+  </si>
+  <si>
+    <t>Test Case 13: Shipping Information</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 13: Інформація про доставку</t>
+  </si>
+  <si>
+    <t>Enter shipping information during checkout.</t>
+  </si>
+  <si>
+    <t>Verify that the entered shipping information is accurately captured and displayed in the order summary.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що введена інформація про доставку точно зафіксована і відображена в підсумковій інформації про замовлення.</t>
+  </si>
+  <si>
+    <t>Test Case 14: Payment Information</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 14: Інформація про оплату</t>
+  </si>
+  <si>
+    <t>Enter payment information during checkout.</t>
+  </si>
+  <si>
+    <t>Введіть платіжну інформацію під час оформлення замовлення.</t>
+  </si>
+  <si>
+    <t>Confirm that the entered payment details are accurately captured and processed without errors.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що введені платіжні реквізити точно зафіксовані і оброблені без помилок.</t>
+  </si>
+  <si>
+    <t>Test Case 15: Order Confirmation</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 15: Підтвердження замовлення</t>
+  </si>
+  <si>
+    <t>Complete the checkout process.</t>
+  </si>
+  <si>
+    <t>Завершіть процес оформлення замовлення.</t>
+  </si>
+  <si>
+    <t>Verify that users receive an order confirmation, and the order is reflected in the user's order history.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі отримують підтвердження замовлення, а замовлення відображається в історії замовлень користувача.</t>
+  </si>
+  <si>
+    <t>Test Case 16: Responsive Design</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 16: Адаптивний дизайн</t>
+  </si>
+  <si>
+    <t>Test the cart functionality on various devices (desktop, tablet, and mobile).</t>
+  </si>
+  <si>
+    <t>Протестуйте функціональність кошика на різних пристроях (настільних, планшетних і мобільних).</t>
+  </si>
+  <si>
+    <t>Confirm that the cart is responsive and provides a user-friendly experience on different screen sizes.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що кошик є адаптивним і забезпечує зручність користування на різних розмірах екрану.</t>
+  </si>
+  <si>
+    <t>Test Case 17: Browser Compatibility</t>
+  </si>
+  <si>
+    <t>Тестовий кейс 17: Сумісність з браузерами</t>
+  </si>
+  <si>
+    <t>Test the cart functionality on different web browsers (e.g., Chrome, Firefox, Safari, Edge).</t>
+  </si>
+  <si>
+    <t>Перевірте функціональність кошика в різних веб-браузерах (наприклад, Chrome, Firefox, Safari, Edge).</t>
+  </si>
+  <si>
+    <t>Verify that the cart works consistently across various browsers without display issues.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що кошик працює стабільно в різних браузерах без проблем з відображенням.</t>
+  </si>
+  <si>
+    <t>Test Case 18: Error Handling</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 18: Обробка помилок</t>
+  </si>
+  <si>
+    <t>Intentionally trigger errors (e.g., add a product with insufficient stock).</t>
+  </si>
+  <si>
+    <t>Навмисно викликайте помилки (наприклад, додайте товар з недостатньою кількістю на складі).</t>
+  </si>
+  <si>
+    <t>Confirm that appropriate error messages are displayed, guiding users to resolve issues.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що відображаються відповідні повідомлення про помилки, які допомагають користувачам вирішити проблеми.</t>
+  </si>
+  <si>
+    <t>Test Case 19: Accessibility</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 19: Доступність</t>
+  </si>
+  <si>
+    <t>Test the cart for accessibility compliance, including keyboard navigation and screen reader support.</t>
+  </si>
+  <si>
+    <t>Перевірте кошик на відповідність вимогам доступності, включно з клавіатурною навігацією та підтримкою зчитування з екрану.</t>
+  </si>
+  <si>
+    <t>Ensure that users with disabilities can interact with and understand the content within the cart.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі з обмеженими можливостями можуть взаємодіяти з вмістом кошика і розуміти його.</t>
+  </si>
+  <si>
+    <t>Test Case 20: Security</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 20: Безпека</t>
+  </si>
+  <si>
+    <t>Review the cart and checkout process for any security vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Перевірте кошик і процес оформлення замовлення на наявність вразливостей безпеки.</t>
+  </si>
+  <si>
+    <t>Confirm that user data and payment information are handled securely, and the checkout process is encrypted.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що дані користувача та платіжна інформація обробляються безпечно, а процес оформлення замовлення зашифрований.</t>
+  </si>
+  <si>
+    <t>By conducting these test scenarios, you can ensure that the shopping cart functions reliably, providing a seamless and secure experience for users throughout the checkout process.</t>
+  </si>
+  <si>
+    <t>Провівши ці тестові сценарії, ви зможете переконатися, що кошик працює надійно, забезпечуючи безперебійну і безпечну роботу користувачів протягом усього процесу оформлення замовлення.</t>
+  </si>
+  <si>
+    <t>тести для додавання товарів у кошик</t>
+  </si>
+  <si>
+    <t>Testing the process of adding products to the cart is crucial for ensuring a smooth and error-free shopping experience. Here are some test scenarios for adding products to the cart:</t>
+  </si>
+  <si>
+    <t>Тестування процесу додавання товарів до кошика має вирішальне значення для забезпечення безперебійного і безпомилкового процесу покупки. Ось кілька тестових сценаріїв для додавання товарів до кошика:</t>
+  </si>
+  <si>
+    <t>Test Case 1: Add Single Product to Cart</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 1: Додавання одного товару до кошика</t>
+  </si>
+  <si>
+    <t>Navigate to a product page and click the "Add to Cart" button.</t>
+  </si>
+  <si>
+    <t>Перейдіть на сторінку товару і натисніть кнопку "Додати в кошик".</t>
+  </si>
+  <si>
+    <t>Test Case 2: Add Multiple Products to Cart</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 2: Додавання декількох товарів до кошика</t>
+  </si>
+  <si>
+    <t>Add several different products to the cart.</t>
+  </si>
+  <si>
+    <t>Додайте кілька різних товарів до кошика.</t>
+  </si>
+  <si>
+    <t>Confirm that all selected products are added to the cart, and the cart count reflects the total number of items.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що всі вибрані товари додані до кошика, а кількість товарів у кошику відображає загальну кількість товарів.</t>
+  </si>
+  <si>
+    <t>Test Case 3: Add Product with Quantity</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 3: Додавання товару з кількістю</t>
+  </si>
+  <si>
+    <t>Select a product and specify a quantity before adding it to the cart.</t>
+  </si>
+  <si>
+    <t>Виберіть товар і вкажіть його кількість перед додаванням до кошика.</t>
+  </si>
+  <si>
+    <t>Verify that the correct quantity of the product is added to the cart.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що до кошика додано правильну кількість товару.</t>
+  </si>
+  <si>
+    <t>Test Case 4: Product Availability</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 4: Наявність товару</t>
+  </si>
+  <si>
+    <t>Attempt to add a product with insufficient stock to the cart.</t>
+  </si>
+  <si>
+    <t>Спроба додати до кошика товар з недостатньою кількістю в наявності.</t>
+  </si>
+  <si>
+    <t>Confirm that users receive an appropriate error message indicating insufficient stock.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі отримують відповідне повідомлення про помилку, що вказує на недостатню кількість товару в наявності.</t>
+  </si>
+  <si>
+    <t>Test Case 5: Cart Icon/Count Update</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 5: Оновлення іконки кошика/кількості</t>
+  </si>
+  <si>
+    <t>Add products to the cart and observe the cart icon or count.</t>
+  </si>
+  <si>
+    <t>Додайте товари до кошика і подивіться на іконку кошика або його кількість.</t>
+  </si>
+  <si>
+    <t>Ensure that the cart icon or count updates in real-time as products are added.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що іконка або кількість товарів у кошику оновлюється в режимі реального часу при додаванні товарів.</t>
+  </si>
+  <si>
+    <t>Test Case 6: View Cart from Product Page</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 6: Перегляд кошика зі сторінки товару</t>
+  </si>
+  <si>
+    <t>Click on the "View Cart" button or navigate to the cart from the product page.</t>
+  </si>
+  <si>
+    <t>Натисніть на кнопку "Переглянути кошик" або перейдіть до кошика зі сторінки товару.</t>
+  </si>
+  <si>
+    <t>Confirm that users are directed to the cart page, displaying the added product(s) with accurate details.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі перенаправляються на сторінку кошика, де відображаються додані товари з точною інформацією.</t>
+  </si>
+  <si>
+    <t>Test Case 7: Continue Shopping Option</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 7: Опція продовження покупки</t>
+  </si>
+  <si>
+    <t>After adding a product to the cart, click on the "Continue Shopping" option.</t>
+  </si>
+  <si>
+    <t>Після додавання товару до кошика натисніть на опцію "Продовжити покупку".</t>
+  </si>
+  <si>
+    <t>Test Case 8: Adding From Product List/Grid</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 8: Додавання зі списку товарів/сітки</t>
+  </si>
+  <si>
+    <t>Add products to the cart directly from a product list or grid.</t>
+  </si>
+  <si>
+    <t>Додайте товари до кошика безпосередньо зі списку або таблиці товарів.</t>
+  </si>
+  <si>
+    <t>Confirm that users can add products without visiting individual product pages.</t>
+  </si>
+  <si>
+    <t>Підтвердження того, що користувачі можуть додавати товари без відвідування окремих сторінок товарів.</t>
+  </si>
+  <si>
+    <t>Test adding products to the cart on various devices (desktop, tablet, and mobile).</t>
+  </si>
+  <si>
+    <t>Протестуйте додавання товарів до кошика на різних пристроях (настільних, планшетних та мобільних).</t>
+  </si>
+  <si>
+    <t>Confirm that the process is responsive and provides a user-friendly experience on different screen sizes.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що процес є адаптивним і забезпечує зручність користування на різних розмірах екрану.</t>
+  </si>
+  <si>
+    <t>Test Case 10: Browser Compatibility</t>
+  </si>
+  <si>
+    <t>Тестовий кейс 10: Сумісність з браузерами</t>
+  </si>
+  <si>
+    <t>Test adding products to the cart on different web browsers (e.g., Chrome, Firefox, Safari, Edge).</t>
+  </si>
+  <si>
+    <t>Протестуйте додавання товарів до кошика в різних веб-браузерах (наприклад, Chrome, Firefox, Safari, Edge).</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що функціонал працює стабільно в різних браузерах без проблем з відображенням.</t>
+  </si>
+  <si>
+    <t>Test Case 11: Adding to Cart as Guest User</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 11: Додавання до кошика як гостьовий користувач</t>
+  </si>
+  <si>
+    <t>Add products to the cart without logging in (as a guest).</t>
+  </si>
+  <si>
+    <t>Додайте товари до кошика без входу в систему (як гість).</t>
+  </si>
+  <si>
+    <t>Confirm that guest users can add products to the cart, and the cart persists throughout the session.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що гостьові користувачі можуть додавати товари до кошика, і що кошик зберігається протягом усього сеансу.</t>
+  </si>
+  <si>
+    <t>Test Case 12: Adding to Cart as Registered User</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 12: Додавання до кошика зареєстрованим користувачем</t>
+  </si>
+  <si>
+    <t>Add products to the cart while logged in.</t>
+  </si>
+  <si>
+    <t>Додайте товари до кошика під час входу в систему.</t>
+  </si>
+  <si>
+    <t>Verify that the cart is associated with the user account, and the added products are reflected in the user's order history.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що кошик пов'язаний з обліковим записом користувача, а додані продукти відображаються в історії замовлень користувача.</t>
+  </si>
+  <si>
+    <t>Test Case 13: Adding Variants/Options</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 13: Додавання варіантів/опцій</t>
+  </si>
+  <si>
+    <t>Add a product with different variants or options (e.g., size, color) to the cart.</t>
+  </si>
+  <si>
+    <t>Додайте до кошика товар з різними варіантами або опціями (наприклад, розмір, колір).</t>
+  </si>
+  <si>
+    <t>Confirm that the selected variants/options are accurately reflected in the cart.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що вибрані варіанти/опції точно відображені в кошику.</t>
+  </si>
+  <si>
+    <t>Test Case 14: Adding to Cart from Quick View</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 14: Додавання в кошик з швидкого перегляду</t>
+  </si>
+  <si>
+    <t>Add a product to the cart directly from a quick view or modal window.</t>
+  </si>
+  <si>
+    <t>Додайте товар до кошика безпосередньо з вікна швидкого перегляду або модального вікна.</t>
+  </si>
+  <si>
+    <t>Verify that users can add products seamlessly without navigating to the full product page.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі можуть безперешкодно додавати продукти без переходу на повну сторінку продукту.</t>
+  </si>
+  <si>
+    <t>Test Case 15: Accessibility</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 15: Доступність</t>
+  </si>
+  <si>
+    <t>Test adding products to the cart for accessibility compliance, including keyboard navigation and screen reader support.</t>
+  </si>
+  <si>
+    <t>Перевірте додавання продуктів до кошика на відповідність вимогам доступності, включаючи клавіатурну навігацію та підтримку зчитування з екрану.</t>
+  </si>
+  <si>
+    <t>Ensure that users with disabilities can interact with and understand the process of adding products to the cart.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі з обмеженими можливостями можуть взаємодіяти з процесом додавання товарів до кошика і розуміти його.</t>
+  </si>
+  <si>
+    <t>Test Case 16: Error Handling</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 16: Обробка помилок</t>
+  </si>
+  <si>
+    <t>Intentionally trigger errors (e.g., server errors, network issues) during the product adding process.</t>
+  </si>
+  <si>
+    <t>Навмисно спровокуйте помилки (наприклад, помилки сервера, проблеми з мережею) під час процесу додавання товару.</t>
+  </si>
+  <si>
+    <t>Test Case 17: Adding from Wishlist</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 17: Додавання зі списку бажань</t>
+  </si>
+  <si>
+    <t>If there is a wishlist feature, attempt to add products to the cart from the wishlist.</t>
+  </si>
+  <si>
+    <t>Якщо є функція списку бажань, спробуйте додати товари до кошика зі списку бажань.</t>
+  </si>
+  <si>
+    <t>Verify that products are successfully added to the cart from the wishlist.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що товари успішно додані до кошика зі списку бажань.</t>
+  </si>
+  <si>
+    <t>Test Case 18: Integration with Promotions</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 18: Інтеграція з акціями</t>
+  </si>
+  <si>
+    <t>Test adding products to the cart during a promotional period.</t>
+  </si>
+  <si>
+    <t>Протестуйте додавання товарів до кошика під час промо-періоду.</t>
+  </si>
+  <si>
+    <t>Confirm that any discounts or promotions are applied correctly when products are added to the cart.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що будь-які знижки або акції застосовуються правильно, коли товари додаються до кошика.</t>
+  </si>
+  <si>
+    <t>By executing these test scenarios, you can ensure that the process of adding products to the cart is reliable, user-friendly, and free of errors across various scenarios and user interactions.</t>
+  </si>
+  <si>
+    <t>Виконуючи ці тестові сценарії, ви можете переконатися, що процес додавання товарів до кошика є надійним, зручним для користувача і не містить помилок при різних сценаріях і взаємодіях з користувачем.</t>
+  </si>
+  <si>
+    <t>тести для оформлення замовлення</t>
+  </si>
+  <si>
+    <t>Testing the checkout process is crucial to ensure a smooth and secure experience for users completing their purchases. Here are some test scenarios for the checkout process:</t>
+  </si>
+  <si>
+    <t>Тестування процесу оформлення замовлення має вирішальне значення для забезпечення безперебійного та безпечного процесу завершення покупок для користувачів. Ось кілька тестових сценаріїв для процесу оформлення замовлення:</t>
+  </si>
+  <si>
+    <t>Test Case 1: Initiate Checkout</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 1: Ініціювати оформлення замовлення</t>
+  </si>
+  <si>
+    <t>Proceed to the checkout page.</t>
+  </si>
+  <si>
+    <t>Перехід на сторінку оформлення замовлення.</t>
+  </si>
+  <si>
+    <t>Confirm that users are directed to the checkout page, displaying the summary of items in the cart.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі переходять на сторінку оформлення замовлення, де відображається підсумок товарів у кошику.</t>
+  </si>
+  <si>
+    <t>Test Case 2: Guest Checkout</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 2: Оформлення замовлення гостем</t>
+  </si>
+  <si>
+    <t>Complete the checkout process as a guest user.</t>
+  </si>
+  <si>
+    <t>Завершіть процес оформлення замовлення як гостьовий користувач.</t>
+  </si>
+  <si>
+    <t>Test Case 3: User Authentication</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 3: Аутентифікація користувача</t>
+  </si>
+  <si>
+    <t>Confirm that the checkout process recognizes the user and associates the order with the user account.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що процес оформлення замовлення розпізнає користувача і пов'язує замовлення з його обліковим записом.</t>
+  </si>
+  <si>
+    <t>Verify that the entered shipping details are accurately captured and displayed in the order summary.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що введені дані про доставку точно зафіксовані і відображені в підсумковій інформації про замовлення.</t>
+  </si>
+  <si>
+    <t>Enter billing information during checkout.</t>
+  </si>
+  <si>
+    <t>Confirm that the entered billing details are accurately captured and displayed in the order summary.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що введені дані для виставлення рахунку точно відображені в підсумковому звіті про замовлення.</t>
+  </si>
+  <si>
+    <t>Test Case 6: Shipping Method Selection</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 6: Вибір способу доставки</t>
+  </si>
+  <si>
+    <t>Choose a shipping method during checkout.</t>
+  </si>
+  <si>
+    <t>Виберіть спосіб доставки під час оформлення замовлення.</t>
+  </si>
+  <si>
+    <t>Verify that the selected shipping method is correctly applied to the order total.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що обраний спосіб доставки коректно застосовано до загальної суми замовлення.</t>
+  </si>
+  <si>
+    <t>Test Case 7: Payment Method Selection</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 7: Вибір способу оплати</t>
+  </si>
+  <si>
+    <t>Choose a payment method during checkout.</t>
+  </si>
+  <si>
+    <t>Виберіть спосіб оплати під час оформлення замовлення.</t>
+  </si>
+  <si>
+    <t>Confirm that the selected payment method is accurately reflected in the order summary.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що обраний спосіб оплати точно відображено в підсумках замовлення.</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 8: Застосувати код купона</t>
+  </si>
+  <si>
+    <t>If applicable, enter a valid coupon code during checkout.</t>
+  </si>
+  <si>
+    <t>Якщо це можливо, введіть дійсний код купона під час оформлення замовлення.</t>
+  </si>
+  <si>
+    <t>Verify that the discount is applied correctly, and the order total reflects the discounted amount.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що знижка застосована правильно, а загальна сума замовлення відображає суму зі знижкою.</t>
+  </si>
+  <si>
+    <t>Test Case 9: Review Order Summary</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 9: Переглянути підсумок замовлення</t>
+  </si>
+  <si>
+    <t>Confirm that the order summary displays accurate details, including product names, quantities, prices, and any applied discounts.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що підсумок замовлення відображає точні дані, включаючи назви продуктів, кількість, ціни та всі застосовані знижки.</t>
+  </si>
+  <si>
+    <t>Test Case 10: Place Order</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 10: Розмістити замовлення</t>
+  </si>
+  <si>
+    <t>Complete the checkout process by confirming the order.</t>
+  </si>
+  <si>
+    <t>Завершіть процес оформлення замовлення, підтвердивши його.</t>
+  </si>
+  <si>
+    <t>Verify that the order is successfully placed, and users receive an order confirmation.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що замовлення успішно оформлено, і користувачі отримують підтвердження замовлення.</t>
+  </si>
+  <si>
+    <t>Test Case 11: Order Confirmation</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 11: Підтвердження замовлення</t>
+  </si>
+  <si>
+    <t>Check the order confirmation email or confirmation page.</t>
+  </si>
+  <si>
+    <t>Перевірте електронний лист з підтвердженням замовлення або сторінку підтвердження.</t>
+  </si>
+  <si>
+    <t>Confirm that users receive a detailed order confirmation, including order number, items purchased, total cost, and shipping details.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі отримують детальне підтвердження замовлення, включаючи номер замовлення, придбані товари, загальну вартість та деталі доставки.</t>
+  </si>
+  <si>
+    <t>Test Case 12: View Order History</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 12: Перегляд історії замовлень</t>
+  </si>
+  <si>
+    <t>Log in and navigate to the order history or account dashboard.</t>
+  </si>
+  <si>
+    <t>Увійдіть в систему і перейдіть до історії замовлень або до інформаційної панелі облікового запису.</t>
+  </si>
+  <si>
+    <t>Verify that the placed order is accurately recorded in the user's order history.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що розміщене замовлення точно записане в історії замовлень користувача.</t>
+  </si>
+  <si>
+    <t>Test Case 13: Guest Checkout Order Lookup</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 13: Перегляд замовлення гостя на касі</t>
+  </si>
+  <si>
+    <t>As a guest, attempt to look up the order using the order confirmation email or order number.</t>
+  </si>
+  <si>
+    <t>Від імені гостя спробуйте знайти замовлення, використовуючи електронну пошту для підтвердження замовлення або номер замовлення.</t>
+  </si>
+  <si>
+    <t>Confirm that guest users can successfully look up their orders for tracking or reference.</t>
+  </si>
+  <si>
+    <t>Підтвердіть, що гостьові користувачі можуть успішно шукати свої замовлення для відстеження або довідки.</t>
+  </si>
+  <si>
+    <t>Test Case 14: Checkout Button Visibility</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 14: Видимість кнопки оформлення замовлення</t>
+  </si>
+  <si>
+    <t>Add products to the cart and navigate to different pages on the website.</t>
+  </si>
+  <si>
+    <t>Додайте товари до кошика та перейдіть на різні сторінки веб-сайту.</t>
+  </si>
+  <si>
+    <t>Confirm that the "Checkout" button or option is consistently visible and accessible throughout the shopping experience.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що кнопка або опція "Оформити замовлення" постійно видима і доступна протягом усього процесу покупки.</t>
+  </si>
+  <si>
+    <t>Test Case 15: Responsive Design</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 15: Адаптивний дизайн</t>
+  </si>
+  <si>
+    <t>Test the checkout process on various devices (desktop, tablet, and mobile).</t>
+  </si>
+  <si>
+    <t>Протестуйте процес оформлення замовлення на різних пристроях (настільних, планшетних і мобільних).</t>
+  </si>
+  <si>
+    <t>Confirm that the checkout process is responsive and provides a user-friendly experience on different screen sizes.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що процес оформлення замовлення є адаптивним і забезпечує зручність користування на різних розмірах екрану.</t>
+  </si>
+  <si>
+    <t>Test Case 16: Browser Compatibility</t>
+  </si>
+  <si>
+    <t>Тестовий кейс 16: Сумісність з браузерами</t>
+  </si>
+  <si>
+    <t>Test the checkout process on different web browsers (e.g., Chrome, Firefox, Safari, Edge).</t>
+  </si>
+  <si>
+    <t>Протестуйте процес оформлення замовлення в різних веб-браузерах (наприклад, Chrome, Firefox, Safari, Edge).</t>
+  </si>
+  <si>
+    <t>Verify that the checkout functionality works consistently across various browsers without display issues.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що функціонал оформлення замовлення працює стабільно в різних браузерах без проблем з відображенням.</t>
+  </si>
+  <si>
+    <t>Test Case 17: Error Handling</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 17: Обробка помилок</t>
+  </si>
+  <si>
+    <t>Intentionally trigger errors (e.g., incomplete form, network issues) during the checkout process.</t>
+  </si>
+  <si>
+    <t>Навмисно створіть помилки (наприклад, незаповнена форма, проблеми з мережею) під час оформлення замовлення.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що відповідні повідомлення про помилки відображаються, допомагаючи користувачам вирішити проблеми.</t>
+  </si>
+  <si>
+    <t>Test Case 18: Security</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 18: Безпека</t>
+  </si>
+  <si>
+    <t>Review the checkout process for any security vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Перевірте процес оформлення замовлення на наявність вразливостей безпеки.</t>
+  </si>
+  <si>
+    <t>Test Case 19: Additional Order Options</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 19: Додаткові опції замовлення</t>
+  </si>
+  <si>
+    <t>Test any additional order options, such as gift wrapping or special instructions.</t>
+  </si>
+  <si>
+    <t>Протестуйте всі додаткові опції замовлення, такі як подарункова упаковка або спеціальні інструкції.</t>
+  </si>
+  <si>
+    <t>Verify that selected options are accurately applied to the order.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що вибрані опції точно застосовуються до замовлення.</t>
+  </si>
+  <si>
+    <t>Test Case 20: Accessibility</t>
+  </si>
+  <si>
+    <t>Тестовий приклад 20: Доступність</t>
+  </si>
+  <si>
+    <t>Перевірте процес оформлення замовлення на відповідність вимогам доступності, включно з клавіатурною навігацією та підтримкою зчитування з екрану.</t>
+  </si>
+  <si>
+    <t>Ensure that users with disabilities can interact with and understand the checkout process.</t>
+  </si>
+  <si>
+    <t>Переконайтеся, що користувачі з обмеженими можливостями можуть взаємодіяти з процесом оформлення замовлення і розуміти його.</t>
+  </si>
+  <si>
+    <t>By conducting these test scenarios, you can ensure that the checkout process is reliable, user-friendly, and secure, providing a positive experience for customers completing their purchases.</t>
+  </si>
+  <si>
+    <t>За допомогою цих тестових сценаріїв ви можете переконатися, що процес оформлення замовлення є надійним, зручним і безпечним, забезпечуючи позитивний досвід для клієнтів, які здійснюють свої покупки.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTS FOR A MODAL WINDOW FOR EMAIL CONFIRMATION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTS FOR ADDING PRODUCTS TO THE WISHLIST WHEN CLICK ON THE HEART SIGN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTS FOR ANIMATION CATEGORY AND SUBCATEGORY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTS FOR CATEGORY CARD AND SUBCATEGORY CARD ANIMATION </t>
+  </si>
+  <si>
+    <t>TESTS FOR CART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTS FOR ADDING PRODUCTS TO THE CART </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTS FOR CHECKOUT </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8294,8 +10385,37 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0917F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8311,6 +10431,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8404,7 +10530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8425,7 +10551,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8436,9 +10562,24 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -8545,13 +10686,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -8566,8 +10700,21 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0917F0"/>
+      <color rgb="FF1F09C2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -8580,8 +10727,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{365DBCB1-3B19-8F49-A752-E3CAAE36FE2A}" name="Таблица1" displayName="Таблица1" ref="A1:C37" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C37" xr:uid="{365DBCB1-3B19-8F49-A752-E3CAAE36FE2A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{365DBCB1-3B19-8F49-A752-E3CAAE36FE2A}" name="Таблица1" displayName="Таблица1" ref="A1:C38" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C38" xr:uid="{365DBCB1-3B19-8F49-A752-E3CAAE36FE2A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FFECA269-DF93-D540-B724-DE64CEB5E97B}" name="Столбец1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{A155B8F5-CF84-784F-9300-A47D4680BC5F}" name="CONTENT" dataDxfId="1" dataCellStyle="Гиперссылка"/>
@@ -8888,10 +11035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0531663-1387-9E4A-AF27-12B181625C38}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -9110,7 +11257,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="9" t="s">
         <v>1697</v>
@@ -9228,9 +11375,67 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="21" t="s">
+        <v>3406</v>
+      </c>
+      <c r="C37" s="15">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C38" s="10">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23" t="s">
+        <v>3408</v>
+      </c>
+      <c r="C39" s="10">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25" t="s">
+        <v>3409</v>
+      </c>
+      <c r="C40" s="19">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
+      <c r="B41" s="26" t="s">
+        <v>3410</v>
+      </c>
+      <c r="C41" s="10">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="24"/>
+      <c r="B42" s="25" t="s">
+        <v>3411</v>
+      </c>
+      <c r="C42" s="19">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18" t="s">
+        <v>3412</v>
+      </c>
+      <c r="C43" s="10">
+        <v>3543</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9269,6 +11474,13 @@
     <hyperlink ref="B34" location="TestCases!B2576" display="TESTS FOR DESIGN OF &quot;Оформлення замовлення&quot; FORM" xr:uid="{169DF2A1-3B8E-B24A-AF33-4D8A1C790BD5}"/>
     <hyperlink ref="B35" location="TestCases!B2672" display="TESTS FOR &quot;our projects&quot; SECTION ON THE HOME PAGE " xr:uid="{B674420E-A09B-B24E-A49D-7D1E6F4C6B30}"/>
     <hyperlink ref="B36" location="TestCases!B2768" display="TESTS FOR PADDINGS ON THE MAIN PAGE " xr:uid="{90372A75-CCAC-F74A-A539-E36FD292B7A6}"/>
+    <hyperlink ref="B37" location="TestCases!B2852" display="TESTS FOR A MODAL WINDOW FOR EMAIL CONFIRMATION " xr:uid="{98D2D2A7-7E3C-CC43-94C2-56EB914E694D}"/>
+    <hyperlink ref="B38" location="TestCases!B2943" display="TESTS FOR ADDING PRODUCTS TO THE WISHLIST WHEN CLICK ON THE HEART SIGN " xr:uid="{F4663E0B-C593-7347-B085-97E8A55C3C09}"/>
+    <hyperlink ref="B39" location="TestCases!B3039" display="TESTS FOR ANIMATION CATEGORY AND SUBCATEGORY " xr:uid="{4B456F51-2131-1841-9D2D-F7959CC7B424}"/>
+    <hyperlink ref="B40" location="TestCases!B3151" display="TESTS FOR CATEGORY CARD AND SUBCATEGORY CARD ANIMATION " xr:uid="{78B84112-FFFB-2140-B38B-4CAF70B84B1A}"/>
+    <hyperlink ref="B41" location="TestCases!B3263" display="TESTS FOR CART" xr:uid="{37359E67-A63A-B841-A4CF-E87B832E7371}"/>
+    <hyperlink ref="B42" location="TestCases!B3410" display="TESTS FOR ADDING PRODUCTS TO THE CART " xr:uid="{C2FBA164-57CA-E64F-BE9F-F7EE88CF8D11}"/>
+    <hyperlink ref="B43" location="TestCases!B3543" display="TESTS FOR CHECKOUT " xr:uid="{5170F867-C3E6-714F-B95F-9A3449CFE933}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -9279,10 +11491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DADD2C-47E6-0E4D-808D-EE9D5DA16062}">
-  <dimension ref="B1:C3402"/>
+  <dimension ref="B1:C3687"/>
   <sheetViews>
-    <sheetView topLeftCell="A2826" workbookViewId="0">
-      <selection activeCell="B2768" sqref="B2768"/>
+    <sheetView tabSelected="1" topLeftCell="A3084" workbookViewId="0">
+      <selection activeCell="B3543" sqref="B3543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -29829,361 +32041,653 @@
       <c r="B2851" s="2"/>
       <c r="C2851" s="2"/>
     </row>
-    <row r="2852" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2852" s="2"/>
-      <c r="C2852" s="2"/>
+    <row r="2852" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2852" s="6" t="s">
+        <v>3406</v>
+      </c>
+      <c r="C2852" s="2" t="s">
+        <v>2716</v>
+      </c>
     </row>
     <row r="2853" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2853" s="2"/>
       <c r="C2853" s="2"/>
     </row>
-    <row r="2854" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2854" s="2"/>
-      <c r="C2854" s="2"/>
+    <row r="2854" spans="2:3" ht="95" x14ac:dyDescent="0.2">
+      <c r="B2854" s="2" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C2854" s="2" t="s">
+        <v>2718</v>
+      </c>
     </row>
     <row r="2855" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2855" s="2"/>
       <c r="C2855" s="2"/>
     </row>
-    <row r="2856" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2856" s="2"/>
-      <c r="C2856" s="2"/>
-    </row>
-    <row r="2857" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2857" s="2"/>
-      <c r="C2857" s="2"/>
-    </row>
-    <row r="2858" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2858" s="2"/>
-      <c r="C2858" s="2"/>
-    </row>
-    <row r="2859" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2859" s="2"/>
-      <c r="C2859" s="2"/>
-    </row>
-    <row r="2860" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2860" s="2"/>
-      <c r="C2860" s="2"/>
+    <row r="2856" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2856" s="3" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C2856" s="2" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="2857" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2857" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2857" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2858" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2858" s="2" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C2858" s="2" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="2859" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2859" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2859" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2860" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2860" s="2" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C2860" s="2" t="s">
+        <v>2724</v>
+      </c>
     </row>
     <row r="2861" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2861" s="2"/>
       <c r="C2861" s="2"/>
     </row>
-    <row r="2862" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2862" s="2"/>
-      <c r="C2862" s="2"/>
-    </row>
-    <row r="2863" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2863" s="2"/>
-      <c r="C2863" s="2"/>
-    </row>
-    <row r="2864" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2864" s="2"/>
-      <c r="C2864" s="2"/>
-    </row>
-    <row r="2865" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2865" s="2"/>
-      <c r="C2865" s="2"/>
-    </row>
-    <row r="2866" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2866" s="2"/>
-      <c r="C2866" s="2"/>
+    <row r="2862" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2862" s="3" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C2862" s="2" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="2863" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2863" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2863" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2864" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2864" s="2" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C2864" s="2" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="2865" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2865" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2865" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2866" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2866" s="2" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C2866" s="2" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="2867" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2867" s="2"/>
       <c r="C2867" s="2"/>
     </row>
-    <row r="2868" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2868" s="2"/>
-      <c r="C2868" s="2"/>
-    </row>
-    <row r="2869" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2869" s="2"/>
-      <c r="C2869" s="2"/>
-    </row>
-    <row r="2870" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2870" s="2"/>
-      <c r="C2870" s="2"/>
-    </row>
-    <row r="2871" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2871" s="2"/>
-      <c r="C2871" s="2"/>
-    </row>
-    <row r="2872" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2872" s="2"/>
-      <c r="C2872" s="2"/>
+    <row r="2868" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2868" s="3" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C2868" s="2" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="2869" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2869" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2869" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2870" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2870" s="2" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C2870" s="2" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="2871" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2871" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2871" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2872" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2872" s="2" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C2872" s="2" t="s">
+        <v>2736</v>
+      </c>
     </row>
     <row r="2873" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2873" s="2"/>
       <c r="C2873" s="2"/>
     </row>
-    <row r="2874" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2874" s="2"/>
-      <c r="C2874" s="2"/>
-    </row>
-    <row r="2875" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2875" s="2"/>
-      <c r="C2875" s="2"/>
-    </row>
-    <row r="2876" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2876" s="2"/>
-      <c r="C2876" s="2"/>
-    </row>
-    <row r="2877" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2877" s="2"/>
-      <c r="C2877" s="2"/>
-    </row>
-    <row r="2878" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2878" s="2"/>
-      <c r="C2878" s="2"/>
+    <row r="2874" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2874" s="3" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C2874" s="2" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="2875" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2875" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2875" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2876" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2876" s="2" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C2876" s="2" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="2877" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2877" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2877" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2878" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2878" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C2878" s="2" t="s">
+        <v>2742</v>
+      </c>
     </row>
     <row r="2879" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2879" s="2"/>
       <c r="C2879" s="2"/>
     </row>
-    <row r="2880" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2880" s="2"/>
-      <c r="C2880" s="2"/>
-    </row>
-    <row r="2881" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2881" s="2"/>
-      <c r="C2881" s="2"/>
-    </row>
-    <row r="2882" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2882" s="2"/>
-      <c r="C2882" s="2"/>
-    </row>
-    <row r="2883" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2883" s="2"/>
-      <c r="C2883" s="2"/>
-    </row>
-    <row r="2884" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2884" s="2"/>
-      <c r="C2884" s="2"/>
+    <row r="2880" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2880" s="3" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C2880" s="2" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="2881" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2881" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2881" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2882" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2882" s="2" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C2882" s="2" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="2883" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2883" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2883" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2884" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2884" s="2" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C2884" s="2" t="s">
+        <v>2748</v>
+      </c>
     </row>
     <row r="2885" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2885" s="2"/>
       <c r="C2885" s="2"/>
     </row>
-    <row r="2886" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2886" s="2"/>
-      <c r="C2886" s="2"/>
-    </row>
-    <row r="2887" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2887" s="2"/>
-      <c r="C2887" s="2"/>
-    </row>
-    <row r="2888" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2888" s="2"/>
-      <c r="C2888" s="2"/>
-    </row>
-    <row r="2889" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2889" s="2"/>
-      <c r="C2889" s="2"/>
-    </row>
-    <row r="2890" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2890" s="2"/>
-      <c r="C2890" s="2"/>
+    <row r="2886" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2886" s="3" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C2886" s="2" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="2887" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2887" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2887" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2888" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2888" s="2" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C2888" s="2" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="2889" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2889" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2889" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2890" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2890" s="2" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C2890" s="2" t="s">
+        <v>2754</v>
+      </c>
     </row>
     <row r="2891" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2891" s="2"/>
       <c r="C2891" s="2"/>
     </row>
-    <row r="2892" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2892" s="2"/>
-      <c r="C2892" s="2"/>
-    </row>
-    <row r="2893" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2893" s="2"/>
-      <c r="C2893" s="2"/>
-    </row>
-    <row r="2894" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2894" s="2"/>
-      <c r="C2894" s="2"/>
-    </row>
-    <row r="2895" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2895" s="2"/>
-      <c r="C2895" s="2"/>
-    </row>
-    <row r="2896" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2896" s="2"/>
-      <c r="C2896" s="2"/>
+    <row r="2892" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2892" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C2892" s="2" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="2893" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2893" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2893" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2894" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2894" s="2" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C2894" s="2" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="2895" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2895" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2895" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2896" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B2896" s="2" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C2896" s="2" t="s">
+        <v>2760</v>
+      </c>
     </row>
     <row r="2897" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2897" s="2"/>
       <c r="C2897" s="2"/>
     </row>
-    <row r="2898" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2898" s="2"/>
-      <c r="C2898" s="2"/>
-    </row>
-    <row r="2899" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2899" s="2"/>
-      <c r="C2899" s="2"/>
-    </row>
-    <row r="2900" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2900" s="2"/>
-      <c r="C2900" s="2"/>
-    </row>
-    <row r="2901" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2901" s="2"/>
-      <c r="C2901" s="2"/>
-    </row>
-    <row r="2902" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2902" s="2"/>
-      <c r="C2902" s="2"/>
+    <row r="2898" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2898" s="3" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C2898" s="2" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="2899" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2899" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2899" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2900" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2900" s="2" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C2900" s="2" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="2901" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2901" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2901" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2902" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B2902" s="2" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C2902" s="2" t="s">
+        <v>2766</v>
+      </c>
     </row>
     <row r="2903" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2903" s="2"/>
       <c r="C2903" s="2"/>
     </row>
-    <row r="2904" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2904" s="2"/>
-      <c r="C2904" s="2"/>
-    </row>
-    <row r="2905" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2905" s="2"/>
-      <c r="C2905" s="2"/>
-    </row>
-    <row r="2906" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2906" s="2"/>
-      <c r="C2906" s="2"/>
-    </row>
-    <row r="2907" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2907" s="2"/>
-      <c r="C2907" s="2"/>
-    </row>
-    <row r="2908" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2908" s="2"/>
-      <c r="C2908" s="2"/>
+    <row r="2904" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2904" s="3" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C2904" s="2" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="2905" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2905" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2905" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2906" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2906" s="2" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C2906" s="2" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="2907" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2907" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2907" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2908" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B2908" s="2" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C2908" s="2" t="s">
+        <v>2772</v>
+      </c>
     </row>
     <row r="2909" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2909" s="2"/>
       <c r="C2909" s="2"/>
     </row>
-    <row r="2910" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2910" s="2"/>
-      <c r="C2910" s="2"/>
-    </row>
-    <row r="2911" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2911" s="2"/>
-      <c r="C2911" s="2"/>
-    </row>
-    <row r="2912" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2912" s="2"/>
-      <c r="C2912" s="2"/>
-    </row>
-    <row r="2913" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2913" s="2"/>
-      <c r="C2913" s="2"/>
-    </row>
-    <row r="2914" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2914" s="2"/>
-      <c r="C2914" s="2"/>
+    <row r="2910" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2910" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C2910" s="2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="2911" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2911" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2911" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2912" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2912" s="2" t="s">
+        <v>2773</v>
+      </c>
+      <c r="C2912" s="2" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="2913" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2913" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2913" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2914" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B2914" s="2" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C2914" s="2" t="s">
+        <v>2776</v>
+      </c>
     </row>
     <row r="2915" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2915" s="2"/>
       <c r="C2915" s="2"/>
     </row>
-    <row r="2916" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2916" s="2"/>
-      <c r="C2916" s="2"/>
-    </row>
-    <row r="2917" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2917" s="2"/>
-      <c r="C2917" s="2"/>
-    </row>
-    <row r="2918" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2918" s="2"/>
-      <c r="C2918" s="2"/>
-    </row>
-    <row r="2919" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2919" s="2"/>
-      <c r="C2919" s="2"/>
-    </row>
-    <row r="2920" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2920" s="2"/>
-      <c r="C2920" s="2"/>
+    <row r="2916" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2916" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="C2916" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="2917" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2917" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2917" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2918" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2918" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C2918" s="2" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="2919" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2919" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2919" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2920" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2920" s="2" t="s">
+        <v>2779</v>
+      </c>
+      <c r="C2920" s="2" t="s">
+        <v>2780</v>
+      </c>
     </row>
     <row r="2921" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2921" s="2"/>
       <c r="C2921" s="2"/>
     </row>
-    <row r="2922" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2922" s="2"/>
-      <c r="C2922" s="2"/>
-    </row>
-    <row r="2923" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2923" s="2"/>
-      <c r="C2923" s="2"/>
-    </row>
-    <row r="2924" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2924" s="2"/>
-      <c r="C2924" s="2"/>
-    </row>
-    <row r="2925" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2925" s="2"/>
-      <c r="C2925" s="2"/>
-    </row>
-    <row r="2926" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2926" s="2"/>
-      <c r="C2926" s="2"/>
+    <row r="2922" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2922" s="3" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C2922" s="2" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="2923" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2923" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2923" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2924" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2924" s="2" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C2924" s="2" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="2925" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2925" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2925" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2926" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2926" s="2" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C2926" s="2" t="s">
+        <v>2785</v>
+      </c>
     </row>
     <row r="2927" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2927" s="2"/>
       <c r="C2927" s="2"/>
     </row>
-    <row r="2928" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2928" s="2"/>
-      <c r="C2928" s="2"/>
-    </row>
-    <row r="2929" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2929" s="2"/>
-      <c r="C2929" s="2"/>
-    </row>
-    <row r="2930" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2930" s="2"/>
-      <c r="C2930" s="2"/>
-    </row>
-    <row r="2931" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2931" s="2"/>
-      <c r="C2931" s="2"/>
-    </row>
-    <row r="2932" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2932" s="2"/>
-      <c r="C2932" s="2"/>
+    <row r="2928" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2928" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C2928" s="2" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="2929" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2929" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2929" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2930" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2930" s="2" t="s">
+        <v>2786</v>
+      </c>
+      <c r="C2930" s="2" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="2931" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2931" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2931" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2932" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B2932" s="2" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C2932" s="2" t="s">
+        <v>2789</v>
+      </c>
     </row>
     <row r="2933" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2933" s="2"/>
       <c r="C2933" s="2"/>
     </row>
-    <row r="2934" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2934" s="2"/>
-      <c r="C2934" s="2"/>
-    </row>
-    <row r="2935" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2935" s="2"/>
-      <c r="C2935" s="2"/>
-    </row>
-    <row r="2936" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2936" s="2"/>
-      <c r="C2936" s="2"/>
-    </row>
-    <row r="2937" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2937" s="2"/>
-      <c r="C2937" s="2"/>
-    </row>
-    <row r="2938" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2938" s="2"/>
-      <c r="C2938" s="2"/>
+    <row r="2934" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2934" s="3" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C2934" s="2" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="2935" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2935" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2935" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2936" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2936" s="2" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C2936" s="2" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="2937" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2937" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2937" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2938" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B2938" s="2" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C2938" s="2" t="s">
+        <v>2795</v>
+      </c>
     </row>
     <row r="2939" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2939" s="2"/>
       <c r="C2939" s="2"/>
     </row>
-    <row r="2940" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2940" s="2"/>
-      <c r="C2940" s="2"/>
+    <row r="2940" spans="2:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="B2940" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C2940" s="2" t="s">
+        <v>2797</v>
+      </c>
     </row>
     <row r="2941" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2941" s="2"/>
@@ -30193,829 +32697,1453 @@
       <c r="B2942" s="2"/>
       <c r="C2942" s="2"/>
     </row>
-    <row r="2943" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2943" s="2"/>
-      <c r="C2943" s="2"/>
+    <row r="2943" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2943" s="16" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C2943" s="2" t="s">
+        <v>2798</v>
+      </c>
     </row>
     <row r="2944" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2944" s="2"/>
       <c r="C2944" s="2"/>
     </row>
-    <row r="2945" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2945" s="2"/>
-      <c r="C2945" s="2"/>
+    <row r="2945" spans="2:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="B2945" s="2" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C2945" s="2" t="s">
+        <v>2800</v>
+      </c>
     </row>
     <row r="2946" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2946" s="2"/>
       <c r="C2946" s="2"/>
     </row>
-    <row r="2947" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2947" s="2"/>
-      <c r="C2947" s="2"/>
-    </row>
-    <row r="2948" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2948" s="2"/>
-      <c r="C2948" s="2"/>
-    </row>
-    <row r="2949" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2949" s="2"/>
-      <c r="C2949" s="2"/>
-    </row>
-    <row r="2950" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2950" s="2"/>
-      <c r="C2950" s="2"/>
-    </row>
-    <row r="2951" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2951" s="2"/>
-      <c r="C2951" s="2"/>
+    <row r="2947" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2947" s="3" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C2947" s="2" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="2948" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2948" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2948" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2949" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2949" s="2" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C2949" s="2" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="2950" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2950" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2950" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2951" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2951" s="2" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C2951" s="2" t="s">
+        <v>2806</v>
+      </c>
     </row>
     <row r="2952" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2952" s="2"/>
       <c r="C2952" s="2"/>
     </row>
-    <row r="2953" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2953" s="2"/>
-      <c r="C2953" s="2"/>
-    </row>
-    <row r="2954" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2954" s="2"/>
-      <c r="C2954" s="2"/>
-    </row>
-    <row r="2955" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2955" s="2"/>
-      <c r="C2955" s="2"/>
-    </row>
-    <row r="2956" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2956" s="2"/>
-      <c r="C2956" s="2"/>
-    </row>
-    <row r="2957" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2957" s="2"/>
-      <c r="C2957" s="2"/>
+    <row r="2953" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2953" s="3" t="s">
+        <v>2807</v>
+      </c>
+      <c r="C2953" s="2" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="2954" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2954" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2954" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2955" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2955" s="2" t="s">
+        <v>2809</v>
+      </c>
+      <c r="C2955" s="2" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="2956" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2956" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2956" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2957" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B2957" s="2" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C2957" s="2" t="s">
+        <v>2812</v>
+      </c>
     </row>
     <row r="2958" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2958" s="2"/>
       <c r="C2958" s="2"/>
     </row>
-    <row r="2959" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2959" s="2"/>
-      <c r="C2959" s="2"/>
-    </row>
-    <row r="2960" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2960" s="2"/>
-      <c r="C2960" s="2"/>
-    </row>
-    <row r="2961" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2961" s="2"/>
-      <c r="C2961" s="2"/>
-    </row>
-    <row r="2962" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2962" s="2"/>
-      <c r="C2962" s="2"/>
-    </row>
-    <row r="2963" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2963" s="2"/>
-      <c r="C2963" s="2"/>
+    <row r="2959" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2959" s="3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C2959" s="2" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="2960" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2960" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2961" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2961" s="2" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C2961" s="2" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="2962" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2962" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2962" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2963" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B2963" s="2" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C2963" s="2" t="s">
+        <v>2818</v>
+      </c>
     </row>
     <row r="2964" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2964" s="2"/>
       <c r="C2964" s="2"/>
     </row>
-    <row r="2965" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2965" s="2"/>
-      <c r="C2965" s="2"/>
-    </row>
-    <row r="2966" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2966" s="2"/>
-      <c r="C2966" s="2"/>
-    </row>
-    <row r="2967" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2967" s="2"/>
-      <c r="C2967" s="2"/>
-    </row>
-    <row r="2968" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2968" s="2"/>
-      <c r="C2968" s="2"/>
-    </row>
-    <row r="2969" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2969" s="2"/>
-      <c r="C2969" s="2"/>
+    <row r="2965" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2965" s="3" t="s">
+        <v>2819</v>
+      </c>
+      <c r="C2965" s="2" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="2966" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2966" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2967" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2967" s="2" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C2967" s="2" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="2968" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2968" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2968" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2969" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2969" s="2" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C2969" s="2" t="s">
+        <v>2824</v>
+      </c>
     </row>
     <row r="2970" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2970" s="2"/>
       <c r="C2970" s="2"/>
     </row>
-    <row r="2971" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2971" s="2"/>
-      <c r="C2971" s="2"/>
-    </row>
-    <row r="2972" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2972" s="2"/>
-      <c r="C2972" s="2"/>
-    </row>
-    <row r="2973" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2973" s="2"/>
-      <c r="C2973" s="2"/>
-    </row>
-    <row r="2974" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2974" s="2"/>
-      <c r="C2974" s="2"/>
-    </row>
-    <row r="2975" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2975" s="2"/>
-      <c r="C2975" s="2"/>
+    <row r="2971" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2971" s="3" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C2971" s="2" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="2972" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2972" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2973" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2973" s="2" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C2973" s="2" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="2974" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2974" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2974" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2975" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2975" s="2" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C2975" s="2" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="2976" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2976" s="2"/>
       <c r="C2976" s="2"/>
     </row>
-    <row r="2977" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2977" s="2"/>
-      <c r="C2977" s="2"/>
-    </row>
-    <row r="2978" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2978" s="2"/>
-      <c r="C2978" s="2"/>
-    </row>
-    <row r="2979" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2979" s="2"/>
-      <c r="C2979" s="2"/>
-    </row>
-    <row r="2980" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2980" s="2"/>
-      <c r="C2980" s="2"/>
-    </row>
-    <row r="2981" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2981" s="2"/>
-      <c r="C2981" s="2"/>
+    <row r="2977" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2977" s="3" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C2977" s="2" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="2978" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2978" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2979" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2979" s="2" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C2979" s="2" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="2980" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2980" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2980" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2981" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2981" s="2" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C2981" s="2" t="s">
+        <v>2836</v>
+      </c>
     </row>
     <row r="2982" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2982" s="2"/>
       <c r="C2982" s="2"/>
     </row>
-    <row r="2983" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2983" s="2"/>
-      <c r="C2983" s="2"/>
-    </row>
-    <row r="2984" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2984" s="2"/>
-      <c r="C2984" s="2"/>
-    </row>
-    <row r="2985" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2985" s="2"/>
-      <c r="C2985" s="2"/>
-    </row>
-    <row r="2986" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2986" s="2"/>
-      <c r="C2986" s="2"/>
-    </row>
-    <row r="2987" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2987" s="2"/>
-      <c r="C2987" s="2"/>
+    <row r="2983" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2983" s="3" t="s">
+        <v>2837</v>
+      </c>
+      <c r="C2983" s="2" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="2984" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2984" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2985" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2985" s="2" t="s">
+        <v>2839</v>
+      </c>
+      <c r="C2985" s="2" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="2986" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2986" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2986" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2987" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2987" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="C2987" s="2" t="s">
+        <v>2842</v>
+      </c>
     </row>
     <row r="2988" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2988" s="2"/>
       <c r="C2988" s="2"/>
     </row>
-    <row r="2989" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2989" s="2"/>
-      <c r="C2989" s="2"/>
-    </row>
-    <row r="2990" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2990" s="2"/>
-      <c r="C2990" s="2"/>
-    </row>
-    <row r="2991" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2991" s="2"/>
-      <c r="C2991" s="2"/>
-    </row>
-    <row r="2992" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2992" s="2"/>
-      <c r="C2992" s="2"/>
-    </row>
-    <row r="2993" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2993" s="2"/>
-      <c r="C2993" s="2"/>
+    <row r="2989" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2989" s="3" t="s">
+        <v>2843</v>
+      </c>
+      <c r="C2989" s="2" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="2990" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2990" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2991" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2991" s="2" t="s">
+        <v>2845</v>
+      </c>
+      <c r="C2991" s="2" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="2992" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2992" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2992" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2993" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2993" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C2993" s="2" t="s">
+        <v>2848</v>
+      </c>
     </row>
     <row r="2994" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2994" s="2"/>
       <c r="C2994" s="2"/>
     </row>
-    <row r="2995" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2995" s="2"/>
-      <c r="C2995" s="2"/>
-    </row>
-    <row r="2996" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2996" s="2"/>
-      <c r="C2996" s="2"/>
-    </row>
-    <row r="2997" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2997" s="2"/>
-      <c r="C2997" s="2"/>
-    </row>
-    <row r="2998" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2998" s="2"/>
-      <c r="C2998" s="2"/>
-    </row>
-    <row r="2999" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2999" s="2"/>
-      <c r="C2999" s="2"/>
+    <row r="2995" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2995" s="3" t="s">
+        <v>2849</v>
+      </c>
+      <c r="C2995" s="2" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="2996" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2996" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2997" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2997" s="2" t="s">
+        <v>2851</v>
+      </c>
+      <c r="C2997" s="2" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="2998" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2998" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2998" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2999" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B2999" s="2" t="s">
+        <v>2853</v>
+      </c>
+      <c r="C2999" s="2" t="s">
+        <v>2854</v>
+      </c>
     </row>
     <row r="3000" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3000" s="2"/>
       <c r="C3000" s="2"/>
     </row>
-    <row r="3001" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3001" s="2"/>
-      <c r="C3001" s="2"/>
-    </row>
-    <row r="3002" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3002" s="2"/>
-      <c r="C3002" s="2"/>
-    </row>
-    <row r="3003" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3003" s="2"/>
-      <c r="C3003" s="2"/>
-    </row>
-    <row r="3004" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3004" s="2"/>
-      <c r="C3004" s="2"/>
-    </row>
-    <row r="3005" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3005" s="2"/>
-      <c r="C3005" s="2"/>
+    <row r="3001" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3001" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C3001" s="2" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="3002" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3002" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3003" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3003" s="2" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C3003" s="2" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="3004" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3004" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3004" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3005" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3005" s="2" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C3005" s="2" t="s">
+        <v>2859</v>
+      </c>
     </row>
     <row r="3006" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3006" s="2"/>
       <c r="C3006" s="2"/>
     </row>
-    <row r="3007" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3007" s="2"/>
-      <c r="C3007" s="2"/>
-    </row>
-    <row r="3008" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3008" s="2"/>
-      <c r="C3008" s="2"/>
-    </row>
-    <row r="3009" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3009" s="2"/>
-      <c r="C3009" s="2"/>
-    </row>
-    <row r="3010" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3010" s="2"/>
-      <c r="C3010" s="2"/>
-    </row>
-    <row r="3011" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3011" s="2"/>
-      <c r="C3011" s="2"/>
+    <row r="3007" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3007" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C3007" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="3008" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3008" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3009" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3009" s="2" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C3009" s="2" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="3010" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3010" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3010" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3011" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3011" s="2" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C3011" s="2" t="s">
+        <v>2863</v>
+      </c>
     </row>
     <row r="3012" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3012" s="2"/>
       <c r="C3012" s="2"/>
     </row>
-    <row r="3013" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3013" s="2"/>
-      <c r="C3013" s="2"/>
-    </row>
-    <row r="3014" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3014" s="2"/>
-      <c r="C3014" s="2"/>
-    </row>
-    <row r="3015" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3015" s="2"/>
-      <c r="C3015" s="2"/>
-    </row>
-    <row r="3016" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3016" s="2"/>
-      <c r="C3016" s="2"/>
-    </row>
-    <row r="3017" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3017" s="2"/>
-      <c r="C3017" s="2"/>
+    <row r="3013" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3013" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C3013" s="2" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="3014" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3014" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3015" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3015" s="2" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C3015" s="2" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="3016" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3016" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3016" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3017" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3017" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C3017" s="2" t="s">
+        <v>2867</v>
+      </c>
     </row>
     <row r="3018" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3018" s="2"/>
       <c r="C3018" s="2"/>
     </row>
-    <row r="3019" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3019" s="2"/>
-      <c r="C3019" s="2"/>
-    </row>
-    <row r="3020" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3020" s="2"/>
-      <c r="C3020" s="2"/>
-    </row>
-    <row r="3021" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3021" s="2"/>
-      <c r="C3021" s="2"/>
-    </row>
-    <row r="3022" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3022" s="2"/>
-      <c r="C3022" s="2"/>
-    </row>
-    <row r="3023" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3023" s="2"/>
-      <c r="C3023" s="2"/>
+    <row r="3019" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3019" s="3" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C3019" s="2" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="3020" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3020" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3021" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3021" s="2" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C3021" s="2" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="3022" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3022" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3022" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3023" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3023" s="2" t="s">
+        <v>2872</v>
+      </c>
+      <c r="C3023" s="2" t="s">
+        <v>2873</v>
+      </c>
     </row>
     <row r="3024" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3024" s="2"/>
       <c r="C3024" s="2"/>
     </row>
-    <row r="3025" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3025" s="2"/>
-      <c r="C3025" s="2"/>
-    </row>
-    <row r="3026" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3026" s="2"/>
-      <c r="C3026" s="2"/>
-    </row>
-    <row r="3027" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3027" s="2"/>
-      <c r="C3027" s="2"/>
-    </row>
-    <row r="3028" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3028" s="2"/>
-      <c r="C3028" s="2"/>
-    </row>
-    <row r="3029" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3029" s="2"/>
-      <c r="C3029" s="2"/>
+    <row r="3025" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3025" s="3" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C3025" s="2" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="3026" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3026" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3027" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3027" s="2" t="s">
+        <v>2876</v>
+      </c>
+      <c r="C3027" s="2" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="3028" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3028" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3028" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3029" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3029" s="2" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C3029" s="2" t="s">
+        <v>2879</v>
+      </c>
     </row>
     <row r="3030" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3030" s="2"/>
       <c r="C3030" s="2"/>
     </row>
-    <row r="3031" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3031" s="2"/>
-      <c r="C3031" s="2"/>
-    </row>
-    <row r="3032" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3032" s="2"/>
-      <c r="C3032" s="2"/>
-    </row>
-    <row r="3033" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3033" s="2"/>
-      <c r="C3033" s="2"/>
-    </row>
-    <row r="3034" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3034" s="2"/>
-      <c r="C3034" s="2"/>
-    </row>
-    <row r="3035" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3035" s="2"/>
-      <c r="C3035" s="2"/>
+    <row r="3031" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3031" s="3" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C3031" s="2" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="3032" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3032" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3033" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3033" s="2" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C3033" s="2" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="3034" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3034" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3034" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3035" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3035" s="2" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C3035" s="2" t="s">
+        <v>2885</v>
+      </c>
     </row>
     <row r="3036" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3036" s="2"/>
       <c r="C3036" s="2"/>
     </row>
-    <row r="3037" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3037" s="2"/>
-      <c r="C3037" s="2"/>
+    <row r="3037" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3037" s="2" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C3037" s="2" t="s">
+        <v>2887</v>
+      </c>
     </row>
     <row r="3038" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3038" s="2"/>
       <c r="C3038" s="2"/>
     </row>
-    <row r="3039" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3039" s="2"/>
-      <c r="C3039" s="2"/>
+    <row r="3039" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3039" s="16" t="s">
+        <v>3408</v>
+      </c>
+      <c r="C3039" s="2" t="s">
+        <v>2888</v>
+      </c>
     </row>
     <row r="3040" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3040" s="2"/>
       <c r="C3040" s="2"/>
     </row>
-    <row r="3041" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3041" s="2"/>
-      <c r="C3041" s="2"/>
+    <row r="3041" spans="2:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="B3041" s="2" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C3041" s="2" t="s">
+        <v>2890</v>
+      </c>
     </row>
     <row r="3042" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3042" s="2"/>
       <c r="C3042" s="2"/>
     </row>
-    <row r="3043" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3043" s="2"/>
-      <c r="C3043" s="2"/>
+    <row r="3043" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3043" s="3" t="s">
+        <v>2891</v>
+      </c>
+      <c r="C3043" s="2" t="s">
+        <v>2892</v>
+      </c>
     </row>
     <row r="3044" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3044" s="2"/>
       <c r="C3044" s="2"/>
     </row>
-    <row r="3045" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3045" s="2"/>
-      <c r="C3045" s="2"/>
-    </row>
-    <row r="3046" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3046" s="2"/>
-      <c r="C3046" s="2"/>
-    </row>
-    <row r="3047" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3047" s="2"/>
-      <c r="C3047" s="2"/>
-    </row>
-    <row r="3048" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3048" s="2"/>
-      <c r="C3048" s="2"/>
+    <row r="3045" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3045" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3046" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3046" s="2" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C3046" s="2" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="3047" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3047" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3047" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3048" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3048" s="2" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C3048" s="2" t="s">
+        <v>2896</v>
+      </c>
     </row>
     <row r="3049" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3049" s="2"/>
       <c r="C3049" s="2"/>
     </row>
-    <row r="3050" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3050" s="2"/>
-      <c r="C3050" s="2"/>
+    <row r="3050" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3050" s="3" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C3050" s="2" t="s">
+        <v>2898</v>
+      </c>
     </row>
     <row r="3051" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3051" s="2"/>
       <c r="C3051" s="2"/>
     </row>
-    <row r="3052" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3052" s="2"/>
-      <c r="C3052" s="2"/>
-    </row>
-    <row r="3053" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3053" s="2"/>
-      <c r="C3053" s="2"/>
-    </row>
-    <row r="3054" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3054" s="2"/>
-      <c r="C3054" s="2"/>
-    </row>
-    <row r="3055" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3055" s="2"/>
-      <c r="C3055" s="2"/>
+    <row r="3052" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3052" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3053" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3053" s="2" t="s">
+        <v>2899</v>
+      </c>
+      <c r="C3053" s="2" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="3054" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3054" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3054" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3055" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3055" s="2" t="s">
+        <v>2901</v>
+      </c>
+      <c r="C3055" s="2" t="s">
+        <v>2902</v>
+      </c>
     </row>
     <row r="3056" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3056" s="2"/>
       <c r="C3056" s="2"/>
     </row>
-    <row r="3057" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3057" s="2"/>
-      <c r="C3057" s="2"/>
+    <row r="3057" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3057" s="3" t="s">
+        <v>2903</v>
+      </c>
+      <c r="C3057" s="2" t="s">
+        <v>2904</v>
+      </c>
     </row>
     <row r="3058" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3058" s="2"/>
       <c r="C3058" s="2"/>
     </row>
-    <row r="3059" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3059" s="2"/>
-      <c r="C3059" s="2"/>
-    </row>
-    <row r="3060" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3060" s="2"/>
-      <c r="C3060" s="2"/>
-    </row>
-    <row r="3061" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3061" s="2"/>
-      <c r="C3061" s="2"/>
-    </row>
-    <row r="3062" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3062" s="2"/>
-      <c r="C3062" s="2"/>
+    <row r="3059" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3059" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3060" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3060" s="2" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C3060" s="2" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="3061" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3061" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3061" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3062" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3062" s="2" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C3062" s="2" t="s">
+        <v>2908</v>
+      </c>
     </row>
     <row r="3063" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3063" s="2"/>
       <c r="C3063" s="2"/>
     </row>
-    <row r="3064" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3064" s="2"/>
-      <c r="C3064" s="2"/>
+    <row r="3064" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3064" s="3" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C3064" s="2" t="s">
+        <v>2910</v>
+      </c>
     </row>
     <row r="3065" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3065" s="2"/>
       <c r="C3065" s="2"/>
     </row>
-    <row r="3066" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3066" s="2"/>
-      <c r="C3066" s="2"/>
-    </row>
-    <row r="3067" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3067" s="2"/>
-      <c r="C3067" s="2"/>
-    </row>
-    <row r="3068" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3068" s="2"/>
-      <c r="C3068" s="2"/>
-    </row>
-    <row r="3069" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3069" s="2"/>
-      <c r="C3069" s="2"/>
+    <row r="3066" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3066" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3067" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3067" s="2" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C3067" s="2" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="3068" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3068" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3068" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3069" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3069" s="2" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C3069" s="2" t="s">
+        <v>2914</v>
+      </c>
     </row>
     <row r="3070" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3070" s="2"/>
       <c r="C3070" s="2"/>
     </row>
-    <row r="3071" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3071" s="2"/>
-      <c r="C3071" s="2"/>
+    <row r="3071" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3071" s="3" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C3071" s="2" t="s">
+        <v>2916</v>
+      </c>
     </row>
     <row r="3072" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3072" s="2"/>
       <c r="C3072" s="2"/>
     </row>
-    <row r="3073" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3073" s="2"/>
-      <c r="C3073" s="2"/>
-    </row>
-    <row r="3074" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3074" s="2"/>
-      <c r="C3074" s="2"/>
-    </row>
-    <row r="3075" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3075" s="2"/>
-      <c r="C3075" s="2"/>
-    </row>
-    <row r="3076" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3076" s="2"/>
-      <c r="C3076" s="2"/>
+    <row r="3073" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3073" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3074" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3074" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C3074" s="2" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="3075" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3075" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3075" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3076" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3076" s="2" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C3076" s="2" t="s">
+        <v>2920</v>
+      </c>
     </row>
     <row r="3077" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3077" s="2"/>
       <c r="C3077" s="2"/>
     </row>
-    <row r="3078" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3078" s="2"/>
-      <c r="C3078" s="2"/>
+    <row r="3078" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3078" s="3" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C3078" s="2" t="s">
+        <v>2922</v>
+      </c>
     </row>
     <row r="3079" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3079" s="2"/>
       <c r="C3079" s="2"/>
     </row>
-    <row r="3080" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3080" s="2"/>
-      <c r="C3080" s="2"/>
-    </row>
-    <row r="3081" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3081" s="2"/>
-      <c r="C3081" s="2"/>
-    </row>
-    <row r="3082" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3082" s="2"/>
-      <c r="C3082" s="2"/>
-    </row>
-    <row r="3083" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3083" s="2"/>
-      <c r="C3083" s="2"/>
+    <row r="3080" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3080" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3081" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3081" s="2" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C3081" s="2" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="3082" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3082" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3082" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3083" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3083" s="2" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C3083" s="2" t="s">
+        <v>2926</v>
+      </c>
     </row>
     <row r="3084" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3084" s="2"/>
       <c r="C3084" s="2"/>
     </row>
-    <row r="3085" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3085" s="2"/>
-      <c r="C3085" s="2"/>
+    <row r="3085" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3085" s="3" t="s">
+        <v>2927</v>
+      </c>
+      <c r="C3085" s="2" t="s">
+        <v>2928</v>
+      </c>
     </row>
     <row r="3086" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3086" s="2"/>
       <c r="C3086" s="2"/>
     </row>
-    <row r="3087" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3087" s="2"/>
-      <c r="C3087" s="2"/>
-    </row>
-    <row r="3088" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3088" s="2"/>
-      <c r="C3088" s="2"/>
-    </row>
-    <row r="3089" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3089" s="2"/>
-      <c r="C3089" s="2"/>
-    </row>
-    <row r="3090" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3090" s="2"/>
-      <c r="C3090" s="2"/>
+    <row r="3087" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3087" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3088" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3088" s="2" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C3088" s="2" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="3089" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3089" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3089" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3090" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3090" s="2" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C3090" s="2" t="s">
+        <v>2932</v>
+      </c>
     </row>
     <row r="3091" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3091" s="2"/>
       <c r="C3091" s="2"/>
     </row>
-    <row r="3092" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3092" s="2"/>
-      <c r="C3092" s="2"/>
+    <row r="3092" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3092" s="3" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C3092" s="2" t="s">
+        <v>2934</v>
+      </c>
     </row>
     <row r="3093" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3093" s="2"/>
       <c r="C3093" s="2"/>
     </row>
-    <row r="3094" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3094" s="2"/>
-      <c r="C3094" s="2"/>
-    </row>
-    <row r="3095" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3095" s="2"/>
-      <c r="C3095" s="2"/>
-    </row>
-    <row r="3096" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3096" s="2"/>
-      <c r="C3096" s="2"/>
-    </row>
-    <row r="3097" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3097" s="2"/>
-      <c r="C3097" s="2"/>
+    <row r="3094" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3094" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3095" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3095" s="2" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C3095" s="2" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="3096" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3096" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3096" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3097" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3097" s="2" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C3097" s="2" t="s">
+        <v>2938</v>
+      </c>
     </row>
     <row r="3098" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3098" s="2"/>
       <c r="C3098" s="2"/>
     </row>
-    <row r="3099" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3099" s="2"/>
-      <c r="C3099" s="2"/>
+    <row r="3099" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3099" s="3" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C3099" s="2" t="s">
+        <v>2940</v>
+      </c>
     </row>
     <row r="3100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3100" s="2"/>
       <c r="C3100" s="2"/>
     </row>
-    <row r="3101" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3101" s="2"/>
-      <c r="C3101" s="2"/>
-    </row>
-    <row r="3102" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3102" s="2"/>
-      <c r="C3102" s="2"/>
-    </row>
-    <row r="3103" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3103" s="2"/>
-      <c r="C3103" s="2"/>
-    </row>
-    <row r="3104" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3104" s="2"/>
-      <c r="C3104" s="2"/>
+    <row r="3101" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3102" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3102" s="2" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C3102" s="2" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="3103" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3103" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3104" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3104" s="2" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C3104" s="2" t="s">
+        <v>2944</v>
+      </c>
     </row>
     <row r="3105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3105" s="2"/>
       <c r="C3105" s="2"/>
     </row>
-    <row r="3106" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3106" s="2"/>
-      <c r="C3106" s="2"/>
+    <row r="3106" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3106" s="3" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C3106" s="2" t="s">
+        <v>2946</v>
+      </c>
     </row>
     <row r="3107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3107" s="2"/>
       <c r="C3107" s="2"/>
     </row>
-    <row r="3108" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3108" s="2"/>
-      <c r="C3108" s="2"/>
-    </row>
-    <row r="3109" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3109" s="2"/>
-      <c r="C3109" s="2"/>
-    </row>
-    <row r="3110" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3110" s="2"/>
-      <c r="C3110" s="2"/>
-    </row>
-    <row r="3111" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3111" s="2"/>
-      <c r="C3111" s="2"/>
+    <row r="3108" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3109" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3109" s="2" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C3109" s="2" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="3110" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3110" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3111" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3111" s="2" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C3111" s="2" t="s">
+        <v>2950</v>
+      </c>
     </row>
     <row r="3112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3112" s="2"/>
       <c r="C3112" s="2"/>
     </row>
-    <row r="3113" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3113" s="2"/>
-      <c r="C3113" s="2"/>
+    <row r="3113" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3113" s="3" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C3113" s="2" t="s">
+        <v>2952</v>
+      </c>
     </row>
     <row r="3114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3114" s="2"/>
       <c r="C3114" s="2"/>
     </row>
-    <row r="3115" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3115" s="2"/>
-      <c r="C3115" s="2"/>
-    </row>
-    <row r="3116" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3116" s="2"/>
-      <c r="C3116" s="2"/>
-    </row>
-    <row r="3117" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3117" s="2"/>
-      <c r="C3117" s="2"/>
-    </row>
-    <row r="3118" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3118" s="2"/>
-      <c r="C3118" s="2"/>
+    <row r="3115" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3116" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3116" s="2" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C3116" s="2" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="3117" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3117" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3118" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3118" s="2" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C3118" s="2" t="s">
+        <v>2956</v>
+      </c>
     </row>
     <row r="3119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3119" s="2"/>
       <c r="C3119" s="2"/>
     </row>
-    <row r="3120" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3120" s="2"/>
-      <c r="C3120" s="2"/>
+    <row r="3120" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3120" s="3" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C3120" s="2" t="s">
+        <v>2958</v>
+      </c>
     </row>
     <row r="3121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3121" s="2"/>
       <c r="C3121" s="2"/>
     </row>
-    <row r="3122" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3122" s="2"/>
-      <c r="C3122" s="2"/>
-    </row>
-    <row r="3123" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3123" s="2"/>
-      <c r="C3123" s="2"/>
-    </row>
-    <row r="3124" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3124" s="2"/>
-      <c r="C3124" s="2"/>
-    </row>
-    <row r="3125" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3125" s="2"/>
-      <c r="C3125" s="2"/>
+    <row r="3122" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3123" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3123" s="2" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C3123" s="2" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="3124" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3124" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3125" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3125" s="2" t="s">
+        <v>2961</v>
+      </c>
+      <c r="C3125" s="2" t="s">
+        <v>2962</v>
+      </c>
     </row>
     <row r="3126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3126" s="2"/>
       <c r="C3126" s="2"/>
     </row>
-    <row r="3127" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3127" s="2"/>
-      <c r="C3127" s="2"/>
+    <row r="3127" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3127" s="3" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C3127" s="2" t="s">
+        <v>1981</v>
+      </c>
     </row>
     <row r="3128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3128" s="2"/>
       <c r="C3128" s="2"/>
     </row>
-    <row r="3129" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3129" s="2"/>
-      <c r="C3129" s="2"/>
-    </row>
-    <row r="3130" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3130" s="2"/>
-      <c r="C3130" s="2"/>
-    </row>
-    <row r="3131" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3131" s="2"/>
-      <c r="C3131" s="2"/>
-    </row>
-    <row r="3132" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3132" s="2"/>
-      <c r="C3132" s="2"/>
+    <row r="3129" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3129" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3130" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3130" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="C3130" s="2" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="3131" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3131" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3132" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3132" s="2" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C3132" s="2" t="s">
+        <v>2966</v>
+      </c>
     </row>
     <row r="3133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3133" s="2"/>
       <c r="C3133" s="2"/>
     </row>
-    <row r="3134" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3134" s="2"/>
-      <c r="C3134" s="2"/>
+    <row r="3134" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3134" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C3134" s="2" t="s">
+        <v>1686</v>
+      </c>
     </row>
     <row r="3135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3135" s="2"/>
       <c r="C3135" s="2"/>
     </row>
-    <row r="3136" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3136" s="2"/>
-      <c r="C3136" s="2"/>
-    </row>
-    <row r="3137" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3137" s="2"/>
-      <c r="C3137" s="2"/>
-    </row>
-    <row r="3138" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3138" s="2"/>
-      <c r="C3138" s="2"/>
-    </row>
-    <row r="3139" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3139" s="2"/>
-      <c r="C3139" s="2"/>
+    <row r="3136" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3136" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3137" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3137" s="2" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C3137" s="2" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="3138" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3138" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3139" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3139" s="2" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C3139" s="2" t="s">
+        <v>2970</v>
+      </c>
     </row>
     <row r="3140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3140" s="2"/>
       <c r="C3140" s="2"/>
     </row>
-    <row r="3141" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3141" s="2"/>
-      <c r="C3141" s="2"/>
+    <row r="3141" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3141" s="3" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C3141" s="2" t="s">
+        <v>2972</v>
+      </c>
     </row>
     <row r="3142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3142" s="2"/>
       <c r="C3142" s="2"/>
     </row>
-    <row r="3143" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3143" s="2"/>
-      <c r="C3143" s="2"/>
-    </row>
-    <row r="3144" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3144" s="2"/>
-      <c r="C3144" s="2"/>
-    </row>
-    <row r="3145" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3145" s="2"/>
-      <c r="C3145" s="2"/>
-    </row>
-    <row r="3146" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3146" s="2"/>
-      <c r="C3146" s="2"/>
+    <row r="3143" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3144" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3144" s="2" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C3144" s="2" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="3145" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3145" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3146" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3146" s="2" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C3146" s="2" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="3147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3147" s="2"/>
       <c r="C3147" s="2"/>
     </row>
-    <row r="3148" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3148" s="2"/>
-      <c r="C3148" s="2"/>
+    <row r="3148" spans="2:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="B3148" s="2" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C3148" s="2" t="s">
+        <v>2978</v>
+      </c>
     </row>
     <row r="3149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3149" s="2"/>
@@ -31025,445 +34153,757 @@
       <c r="B3150" s="2"/>
       <c r="C3150" s="2"/>
     </row>
-    <row r="3151" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3151" s="2"/>
-      <c r="C3151" s="2"/>
+    <row r="3151" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3151" s="16" t="s">
+        <v>3409</v>
+      </c>
+      <c r="C3151" s="2" t="s">
+        <v>2979</v>
+      </c>
     </row>
     <row r="3152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3152" s="2"/>
       <c r="C3152" s="2"/>
     </row>
-    <row r="3153" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3153" s="2"/>
-      <c r="C3153" s="2"/>
+    <row r="3153" spans="2:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="B3153" s="2" t="s">
+        <v>2980</v>
+      </c>
+      <c r="C3153" s="2" t="s">
+        <v>2981</v>
+      </c>
     </row>
     <row r="3154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3154" s="2"/>
       <c r="C3154" s="2"/>
     </row>
-    <row r="3155" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3155" s="2"/>
-      <c r="C3155" s="2"/>
+    <row r="3155" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3155" s="3" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C3155" s="2" t="s">
+        <v>2983</v>
+      </c>
     </row>
     <row r="3156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3156" s="2"/>
       <c r="C3156" s="2"/>
     </row>
-    <row r="3157" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3157" s="2"/>
-      <c r="C3157" s="2"/>
-    </row>
-    <row r="3158" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3158" s="2"/>
-      <c r="C3158" s="2"/>
-    </row>
-    <row r="3159" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3159" s="2"/>
-      <c r="C3159" s="2"/>
-    </row>
-    <row r="3160" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3160" s="2"/>
-      <c r="C3160" s="2"/>
+    <row r="3157" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3157" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3157" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3158" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3158" s="2" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C3158" s="2" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="3159" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3159" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3160" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3160" s="2" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C3160" s="2" t="s">
+        <v>2987</v>
+      </c>
     </row>
     <row r="3161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3161" s="2"/>
       <c r="C3161" s="2"/>
     </row>
-    <row r="3162" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3162" s="2"/>
-      <c r="C3162" s="2"/>
+    <row r="3162" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3162" s="3" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C3162" s="2" t="s">
+        <v>2989</v>
+      </c>
     </row>
     <row r="3163" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3163" s="2"/>
       <c r="C3163" s="2"/>
     </row>
-    <row r="3164" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3164" s="2"/>
-      <c r="C3164" s="2"/>
-    </row>
-    <row r="3165" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3165" s="2"/>
-      <c r="C3165" s="2"/>
-    </row>
-    <row r="3166" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3166" s="2"/>
-      <c r="C3166" s="2"/>
-    </row>
-    <row r="3167" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3167" s="2"/>
-      <c r="C3167" s="2"/>
+    <row r="3164" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3164" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3165" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3165" s="2" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C3165" s="2" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="3166" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3166" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3167" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3167" s="2" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C3167" s="2" t="s">
+        <v>2993</v>
+      </c>
     </row>
     <row r="3168" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3168" s="2"/>
       <c r="C3168" s="2"/>
     </row>
-    <row r="3169" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3169" s="2"/>
-      <c r="C3169" s="2"/>
+    <row r="3169" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3169" s="3" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C3169" s="2" t="s">
+        <v>2995</v>
+      </c>
     </row>
     <row r="3170" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3170" s="2"/>
       <c r="C3170" s="2"/>
     </row>
-    <row r="3171" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3171" s="2"/>
-      <c r="C3171" s="2"/>
-    </row>
-    <row r="3172" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3172" s="2"/>
-      <c r="C3172" s="2"/>
-    </row>
-    <row r="3173" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3173" s="2"/>
-      <c r="C3173" s="2"/>
-    </row>
-    <row r="3174" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3174" s="2"/>
-      <c r="C3174" s="2"/>
+    <row r="3171" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3171" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3172" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3172" s="2" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C3172" s="2" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="3173" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3173" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3174" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3174" s="2" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C3174" s="2" t="s">
+        <v>2999</v>
+      </c>
     </row>
     <row r="3175" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3175" s="2"/>
       <c r="C3175" s="2"/>
     </row>
-    <row r="3176" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3176" s="2"/>
-      <c r="C3176" s="2"/>
+    <row r="3176" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3176" s="3" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C3176" s="2" t="s">
+        <v>3001</v>
+      </c>
     </row>
     <row r="3177" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3177" s="2"/>
       <c r="C3177" s="2"/>
     </row>
-    <row r="3178" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3178" s="2"/>
-      <c r="C3178" s="2"/>
-    </row>
-    <row r="3179" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3179" s="2"/>
-      <c r="C3179" s="2"/>
-    </row>
-    <row r="3180" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3180" s="2"/>
-      <c r="C3180" s="2"/>
-    </row>
-    <row r="3181" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3181" s="2"/>
-      <c r="C3181" s="2"/>
+    <row r="3178" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3178" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3179" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3179" s="2" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C3179" s="2" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3180" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3180" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3181" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3181" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C3181" s="2" t="s">
+        <v>3005</v>
+      </c>
     </row>
     <row r="3182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3182" s="2"/>
       <c r="C3182" s="2"/>
     </row>
-    <row r="3183" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3183" s="2"/>
-      <c r="C3183" s="2"/>
+    <row r="3183" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3183" s="3" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C3183" s="2" t="s">
+        <v>3007</v>
+      </c>
     </row>
     <row r="3184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3184" s="2"/>
       <c r="C3184" s="2"/>
     </row>
-    <row r="3185" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3185" s="2"/>
-      <c r="C3185" s="2"/>
-    </row>
-    <row r="3186" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3186" s="2"/>
-      <c r="C3186" s="2"/>
-    </row>
-    <row r="3187" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3187" s="2"/>
-      <c r="C3187" s="2"/>
-    </row>
-    <row r="3188" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3188" s="2"/>
-      <c r="C3188" s="2"/>
+    <row r="3185" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3185" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3186" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3186" s="2" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C3186" s="2" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="3187" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3187" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3188" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3188" s="2" t="s">
+        <v>3010</v>
+      </c>
+      <c r="C3188" s="2" t="s">
+        <v>3011</v>
+      </c>
     </row>
     <row r="3189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3189" s="2"/>
       <c r="C3189" s="2"/>
     </row>
-    <row r="3190" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3190" s="2"/>
-      <c r="C3190" s="2"/>
+    <row r="3190" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3190" s="3" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C3190" s="2" t="s">
+        <v>3013</v>
+      </c>
     </row>
     <row r="3191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3191" s="2"/>
       <c r="C3191" s="2"/>
     </row>
-    <row r="3192" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3192" s="2"/>
-      <c r="C3192" s="2"/>
-    </row>
-    <row r="3193" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3193" s="2"/>
-      <c r="C3193" s="2"/>
-    </row>
-    <row r="3194" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3194" s="2"/>
-      <c r="C3194" s="2"/>
-    </row>
-    <row r="3195" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3195" s="2"/>
-      <c r="C3195" s="2"/>
+    <row r="3192" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3192" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3193" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3193" s="2" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C3193" s="2" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="3194" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3194" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3195" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3195" s="2" t="s">
+        <v>3016</v>
+      </c>
+      <c r="C3195" s="2" t="s">
+        <v>3017</v>
+      </c>
     </row>
     <row r="3196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3196" s="2"/>
       <c r="C3196" s="2"/>
     </row>
-    <row r="3197" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3197" s="2"/>
-      <c r="C3197" s="2"/>
+    <row r="3197" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3197" s="3" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C3197" s="2" t="s">
+        <v>3019</v>
+      </c>
     </row>
     <row r="3198" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3198" s="2"/>
       <c r="C3198" s="2"/>
     </row>
-    <row r="3199" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3199" s="2"/>
-      <c r="C3199" s="2"/>
-    </row>
-    <row r="3200" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3200" s="2"/>
-      <c r="C3200" s="2"/>
-    </row>
-    <row r="3201" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3201" s="2"/>
-      <c r="C3201" s="2"/>
-    </row>
-    <row r="3202" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3202" s="2"/>
-      <c r="C3202" s="2"/>
+    <row r="3199" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3199" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3200" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3200" s="2" t="s">
+        <v>3020</v>
+      </c>
+      <c r="C3200" s="2" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="3201" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3201" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3202" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3202" s="2" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C3202" s="2" t="s">
+        <v>3023</v>
+      </c>
     </row>
     <row r="3203" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3203" s="2"/>
       <c r="C3203" s="2"/>
     </row>
-    <row r="3204" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3204" s="2"/>
-      <c r="C3204" s="2"/>
+    <row r="3204" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3204" s="3" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C3204" s="2" t="s">
+        <v>3025</v>
+      </c>
     </row>
     <row r="3205" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3205" s="2"/>
       <c r="C3205" s="2"/>
     </row>
-    <row r="3206" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3206" s="2"/>
-      <c r="C3206" s="2"/>
-    </row>
-    <row r="3207" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3207" s="2"/>
-      <c r="C3207" s="2"/>
-    </row>
-    <row r="3208" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3208" s="2"/>
-      <c r="C3208" s="2"/>
-    </row>
-    <row r="3209" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3209" s="2"/>
-      <c r="C3209" s="2"/>
+    <row r="3206" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3206" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3207" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3207" s="2" t="s">
+        <v>3026</v>
+      </c>
+      <c r="C3207" s="2" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="3208" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3208" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3209" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3209" s="2" t="s">
+        <v>3028</v>
+      </c>
+      <c r="C3209" s="2" t="s">
+        <v>3029</v>
+      </c>
     </row>
     <row r="3210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3210" s="2"/>
       <c r="C3210" s="2"/>
     </row>
-    <row r="3211" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3211" s="2"/>
-      <c r="C3211" s="2"/>
+    <row r="3211" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3211" s="3" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C3211" s="2" t="s">
+        <v>3031</v>
+      </c>
     </row>
     <row r="3212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3212" s="2"/>
       <c r="C3212" s="2"/>
     </row>
-    <row r="3213" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3213" s="2"/>
-      <c r="C3213" s="2"/>
-    </row>
-    <row r="3214" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3214" s="2"/>
-      <c r="C3214" s="2"/>
-    </row>
-    <row r="3215" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3215" s="2"/>
-      <c r="C3215" s="2"/>
-    </row>
-    <row r="3216" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3216" s="2"/>
-      <c r="C3216" s="2"/>
+    <row r="3213" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3213" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3214" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3214" s="2" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C3214" s="2" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="3215" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3215" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3216" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3216" s="2" t="s">
+        <v>3034</v>
+      </c>
+      <c r="C3216" s="2" t="s">
+        <v>3035</v>
+      </c>
     </row>
     <row r="3217" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3217" s="2"/>
       <c r="C3217" s="2"/>
     </row>
-    <row r="3218" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3218" s="2"/>
-      <c r="C3218" s="2"/>
+    <row r="3218" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3218" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C3218" s="2" t="s">
+        <v>3037</v>
+      </c>
     </row>
     <row r="3219" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3219" s="2"/>
       <c r="C3219" s="2"/>
     </row>
-    <row r="3220" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3220" s="2"/>
-      <c r="C3220" s="2"/>
-    </row>
-    <row r="3221" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3221" s="2"/>
-      <c r="C3221" s="2"/>
-    </row>
-    <row r="3222" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3222" s="2"/>
-      <c r="C3222" s="2"/>
-    </row>
-    <row r="3223" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3223" s="2"/>
-      <c r="C3223" s="2"/>
+    <row r="3220" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3220" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3220" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3221" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3221" s="2" t="s">
+        <v>3038</v>
+      </c>
+      <c r="C3221" s="2" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="3222" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3222" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3223" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3223" s="2" t="s">
+        <v>3040</v>
+      </c>
+      <c r="C3223" s="2" t="s">
+        <v>3041</v>
+      </c>
     </row>
     <row r="3224" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3224" s="2"/>
       <c r="C3224" s="2"/>
     </row>
-    <row r="3225" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3225" s="2"/>
-      <c r="C3225" s="2"/>
+    <row r="3225" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3225" s="3" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C3225" s="2" t="s">
+        <v>3043</v>
+      </c>
     </row>
     <row r="3226" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3226" s="2"/>
       <c r="C3226" s="2"/>
     </row>
-    <row r="3227" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3227" s="2"/>
-      <c r="C3227" s="2"/>
-    </row>
-    <row r="3228" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3228" s="2"/>
-      <c r="C3228" s="2"/>
-    </row>
-    <row r="3229" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3229" s="2"/>
-      <c r="C3229" s="2"/>
-    </row>
-    <row r="3230" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3230" s="2"/>
-      <c r="C3230" s="2"/>
+    <row r="3227" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3227" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3227" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3228" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3228" s="2" t="s">
+        <v>3044</v>
+      </c>
+      <c r="C3228" s="2" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="3229" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3229" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3230" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3230" s="2" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C3230" s="2" t="s">
+        <v>3047</v>
+      </c>
     </row>
     <row r="3231" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3231" s="2"/>
       <c r="C3231" s="2"/>
     </row>
-    <row r="3232" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3232" s="2"/>
-      <c r="C3232" s="2"/>
+    <row r="3232" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3232" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C3232" s="2" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="3233" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3233" s="2"/>
       <c r="C3233" s="2"/>
     </row>
-    <row r="3234" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3234" s="2"/>
-      <c r="C3234" s="2"/>
-    </row>
-    <row r="3235" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3235" s="2"/>
-      <c r="C3235" s="2"/>
-    </row>
-    <row r="3236" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3236" s="2"/>
-      <c r="C3236" s="2"/>
-    </row>
-    <row r="3237" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3237" s="2"/>
-      <c r="C3237" s="2"/>
+    <row r="3234" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3234" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3234" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3235" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3235" s="2" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C3235" s="2" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="3236" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3236" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3237" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3237" s="2" t="s">
+        <v>3050</v>
+      </c>
+      <c r="C3237" s="2" t="s">
+        <v>3051</v>
+      </c>
     </row>
     <row r="3238" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3238" s="2"/>
       <c r="C3238" s="2"/>
     </row>
-    <row r="3239" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3239" s="2"/>
-      <c r="C3239" s="2"/>
+    <row r="3239" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3239" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C3239" s="2" t="s">
+        <v>3052</v>
+      </c>
     </row>
     <row r="3240" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3240" s="2"/>
       <c r="C3240" s="2"/>
     </row>
-    <row r="3241" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3241" s="2"/>
-      <c r="C3241" s="2"/>
-    </row>
-    <row r="3242" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3242" s="2"/>
-      <c r="C3242" s="2"/>
-    </row>
-    <row r="3243" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3243" s="2"/>
-      <c r="C3243" s="2"/>
-    </row>
-    <row r="3244" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3244" s="2"/>
-      <c r="C3244" s="2"/>
+    <row r="3241" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3241" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3241" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3242" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3242" s="2" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C3242" s="2" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="3243" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3243" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3244" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3244" s="2" t="s">
+        <v>3055</v>
+      </c>
+      <c r="C3244" s="2" t="s">
+        <v>3056</v>
+      </c>
     </row>
     <row r="3245" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3245" s="2"/>
       <c r="C3245" s="2"/>
     </row>
-    <row r="3246" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3246" s="2"/>
-      <c r="C3246" s="2"/>
+    <row r="3246" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3246" s="3" t="s">
+        <v>3057</v>
+      </c>
+      <c r="C3246" s="2" t="s">
+        <v>3058</v>
+      </c>
     </row>
     <row r="3247" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3247" s="2"/>
       <c r="C3247" s="2"/>
     </row>
-    <row r="3248" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3248" s="2"/>
-      <c r="C3248" s="2"/>
-    </row>
-    <row r="3249" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3249" s="2"/>
-      <c r="C3249" s="2"/>
-    </row>
-    <row r="3250" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3250" s="2"/>
-      <c r="C3250" s="2"/>
-    </row>
-    <row r="3251" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3251" s="2"/>
-      <c r="C3251" s="2"/>
+    <row r="3248" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3248" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3248" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3249" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3249" s="2" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C3249" s="2" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="3250" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3250" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3250" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3251" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3251" s="2" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C3251" s="2" t="s">
+        <v>3062</v>
+      </c>
     </row>
     <row r="3252" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3252" s="2"/>
       <c r="C3252" s="2"/>
     </row>
-    <row r="3253" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3253" s="2"/>
-      <c r="C3253" s="2"/>
+    <row r="3253" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3253" s="3" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C3253" s="2" t="s">
+        <v>3064</v>
+      </c>
     </row>
     <row r="3254" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3254" s="2"/>
       <c r="C3254" s="2"/>
     </row>
-    <row r="3255" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3255" s="2"/>
-      <c r="C3255" s="2"/>
-    </row>
-    <row r="3256" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3256" s="2"/>
-      <c r="C3256" s="2"/>
-    </row>
-    <row r="3257" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3257" s="2"/>
-      <c r="C3257" s="2"/>
-    </row>
-    <row r="3258" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3258" s="2"/>
-      <c r="C3258" s="2"/>
+    <row r="3255" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3255" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3255" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3256" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3256" s="2" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C3256" s="2" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="3257" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3257" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3257" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3258" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3258" s="2" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C3258" s="2" t="s">
+        <v>3068</v>
+      </c>
     </row>
     <row r="3259" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3259" s="2"/>
       <c r="C3259" s="2"/>
     </row>
-    <row r="3260" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3260" s="2"/>
-      <c r="C3260" s="2"/>
+    <row r="3260" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3260" s="2" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C3260" s="2" t="s">
+        <v>3070</v>
+      </c>
     </row>
     <row r="3261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3261" s="2"/>
@@ -31473,565 +34913,2901 @@
       <c r="B3262" s="2"/>
       <c r="C3262" s="2"/>
     </row>
-    <row r="3263" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3263" s="2"/>
-      <c r="C3263" s="2"/>
+    <row r="3263" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3263" s="16" t="s">
+        <v>3410</v>
+      </c>
+      <c r="C3263" s="2" t="s">
+        <v>3071</v>
+      </c>
     </row>
     <row r="3264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3264" s="2"/>
       <c r="C3264" s="2"/>
     </row>
-    <row r="3265" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3265" s="2"/>
-      <c r="C3265" s="2"/>
+    <row r="3265" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3265" s="2" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C3265" s="2" t="s">
+        <v>3073</v>
+      </c>
     </row>
     <row r="3266" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3266" s="2"/>
       <c r="C3266" s="2"/>
     </row>
-    <row r="3267" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3267" s="2"/>
-      <c r="C3267" s="2"/>
+    <row r="3267" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3267" s="3" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C3267" s="2" t="s">
+        <v>3075</v>
+      </c>
     </row>
     <row r="3268" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3268" s="2"/>
       <c r="C3268" s="2"/>
     </row>
-    <row r="3269" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3269" s="2"/>
-      <c r="C3269" s="2"/>
-    </row>
-    <row r="3270" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3270" s="2"/>
-      <c r="C3270" s="2"/>
-    </row>
-    <row r="3271" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3271" s="2"/>
-      <c r="C3271" s="2"/>
-    </row>
-    <row r="3272" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3272" s="2"/>
-      <c r="C3272" s="2"/>
+    <row r="3269" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3269" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3269" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3270" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3270" s="2" t="s">
+        <v>3076</v>
+      </c>
+      <c r="C3270" s="2" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="3271" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3271" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3271" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3272" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3272" s="2" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C3272" s="2" t="s">
+        <v>3079</v>
+      </c>
     </row>
     <row r="3273" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3273" s="2"/>
       <c r="C3273" s="2"/>
     </row>
-    <row r="3274" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3274" s="2"/>
-      <c r="C3274" s="2"/>
+    <row r="3274" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3274" s="3" t="s">
+        <v>3080</v>
+      </c>
+      <c r="C3274" s="2" t="s">
+        <v>3081</v>
+      </c>
     </row>
     <row r="3275" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3275" s="2"/>
       <c r="C3275" s="2"/>
     </row>
-    <row r="3276" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3276" s="2"/>
-      <c r="C3276" s="2"/>
-    </row>
-    <row r="3277" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3277" s="2"/>
-      <c r="C3277" s="2"/>
-    </row>
-    <row r="3278" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3278" s="2"/>
-      <c r="C3278" s="2"/>
-    </row>
-    <row r="3279" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3279" s="2"/>
-      <c r="C3279" s="2"/>
+    <row r="3276" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3276" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3276" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3277" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3277" s="2" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C3277" s="2" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="3278" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3278" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3278" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3279" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3279" s="2" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C3279" s="2" t="s">
+        <v>3085</v>
+      </c>
     </row>
     <row r="3280" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3280" s="2"/>
       <c r="C3280" s="2"/>
     </row>
-    <row r="3281" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3281" s="2"/>
-      <c r="C3281" s="2"/>
+    <row r="3281" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3281" s="3" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C3281" s="2" t="s">
+        <v>3087</v>
+      </c>
     </row>
     <row r="3282" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3282" s="2"/>
       <c r="C3282" s="2"/>
     </row>
-    <row r="3283" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3283" s="2"/>
-      <c r="C3283" s="2"/>
-    </row>
-    <row r="3284" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3284" s="2"/>
-      <c r="C3284" s="2"/>
-    </row>
-    <row r="3285" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3285" s="2"/>
-      <c r="C3285" s="2"/>
-    </row>
-    <row r="3286" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3286" s="2"/>
-      <c r="C3286" s="2"/>
+    <row r="3283" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3283" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3283" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3284" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3284" s="2" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C3284" s="2" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="3285" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3285" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3285" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3286" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3286" s="2" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C3286" s="2" t="s">
+        <v>3091</v>
+      </c>
     </row>
     <row r="3287" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3287" s="2"/>
       <c r="C3287" s="2"/>
     </row>
-    <row r="3288" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3288" s="2"/>
-      <c r="C3288" s="2"/>
+    <row r="3288" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3288" s="3" t="s">
+        <v>3092</v>
+      </c>
+      <c r="C3288" s="2" t="s">
+        <v>3093</v>
+      </c>
     </row>
     <row r="3289" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3289" s="2"/>
       <c r="C3289" s="2"/>
     </row>
-    <row r="3290" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3290" s="2"/>
-      <c r="C3290" s="2"/>
-    </row>
-    <row r="3291" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3291" s="2"/>
-      <c r="C3291" s="2"/>
-    </row>
-    <row r="3292" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3292" s="2"/>
-      <c r="C3292" s="2"/>
-    </row>
-    <row r="3293" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3293" s="2"/>
-      <c r="C3293" s="2"/>
+    <row r="3290" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3290" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3290" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3291" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3291" s="2" t="s">
+        <v>3094</v>
+      </c>
+      <c r="C3291" s="2" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="3292" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3292" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3292" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3293" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3293" s="2" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C3293" s="2" t="s">
+        <v>3097</v>
+      </c>
     </row>
     <row r="3294" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3294" s="2"/>
       <c r="C3294" s="2"/>
     </row>
-    <row r="3295" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3295" s="2"/>
-      <c r="C3295" s="2"/>
+    <row r="3295" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3295" s="3" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C3295" s="2" t="s">
+        <v>3099</v>
+      </c>
     </row>
     <row r="3296" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3296" s="2"/>
       <c r="C3296" s="2"/>
     </row>
-    <row r="3297" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3297" s="2"/>
-      <c r="C3297" s="2"/>
-    </row>
-    <row r="3298" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3298" s="2"/>
-      <c r="C3298" s="2"/>
-    </row>
-    <row r="3299" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3299" s="2"/>
-      <c r="C3299" s="2"/>
-    </row>
-    <row r="3300" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3300" s="2"/>
-      <c r="C3300" s="2"/>
+    <row r="3297" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3297" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3297" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3298" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3298" s="2" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C3298" s="2" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="3299" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3299" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3299" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3300" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3300" s="2" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C3300" s="2" t="s">
+        <v>3103</v>
+      </c>
     </row>
     <row r="3301" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3301" s="2"/>
       <c r="C3301" s="2"/>
     </row>
-    <row r="3302" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3302" s="2"/>
-      <c r="C3302" s="2"/>
+    <row r="3302" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3302" s="3" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C3302" s="2" t="s">
+        <v>3105</v>
+      </c>
     </row>
     <row r="3303" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3303" s="2"/>
       <c r="C3303" s="2"/>
     </row>
-    <row r="3304" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3304" s="2"/>
-      <c r="C3304" s="2"/>
-    </row>
-    <row r="3305" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3305" s="2"/>
-      <c r="C3305" s="2"/>
-    </row>
-    <row r="3306" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3306" s="2"/>
-      <c r="C3306" s="2"/>
-    </row>
-    <row r="3307" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3307" s="2"/>
-      <c r="C3307" s="2"/>
+    <row r="3304" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3304" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3304" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3305" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3305" s="2" t="s">
+        <v>3106</v>
+      </c>
+      <c r="C3305" s="2" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="3306" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3306" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3306" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3307" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3307" s="2" t="s">
+        <v>3108</v>
+      </c>
+      <c r="C3307" s="2" t="s">
+        <v>3109</v>
+      </c>
     </row>
     <row r="3308" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3308" s="2"/>
       <c r="C3308" s="2"/>
     </row>
-    <row r="3309" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3309" s="2"/>
-      <c r="C3309" s="2"/>
+    <row r="3309" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3309" s="3" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C3309" s="2" t="s">
+        <v>3111</v>
+      </c>
     </row>
     <row r="3310" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3310" s="2"/>
       <c r="C3310" s="2"/>
     </row>
-    <row r="3311" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3311" s="2"/>
-      <c r="C3311" s="2"/>
-    </row>
-    <row r="3312" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3312" s="2"/>
-      <c r="C3312" s="2"/>
-    </row>
-    <row r="3313" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3313" s="2"/>
-      <c r="C3313" s="2"/>
-    </row>
-    <row r="3314" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3314" s="2"/>
-      <c r="C3314" s="2"/>
+    <row r="3311" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3311" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3311" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3312" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3312" s="2" t="s">
+        <v>3112</v>
+      </c>
+      <c r="C3312" s="2" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="3313" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3313" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3313" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3314" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3314" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C3314" s="2" t="s">
+        <v>3115</v>
+      </c>
     </row>
     <row r="3315" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3315" s="2"/>
       <c r="C3315" s="2"/>
     </row>
-    <row r="3316" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3316" s="2"/>
-      <c r="C3316" s="2"/>
+    <row r="3316" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3316" s="3" t="s">
+        <v>3116</v>
+      </c>
+      <c r="C3316" s="2" t="s">
+        <v>3117</v>
+      </c>
     </row>
     <row r="3317" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3317" s="2"/>
       <c r="C3317" s="2"/>
     </row>
-    <row r="3318" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3318" s="2"/>
-      <c r="C3318" s="2"/>
-    </row>
-    <row r="3319" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3319" s="2"/>
-      <c r="C3319" s="2"/>
-    </row>
-    <row r="3320" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3320" s="2"/>
-      <c r="C3320" s="2"/>
-    </row>
-    <row r="3321" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3321" s="2"/>
-      <c r="C3321" s="2"/>
+    <row r="3318" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3318" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3318" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3319" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3319" s="2" t="s">
+        <v>3118</v>
+      </c>
+      <c r="C3319" s="2" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="3320" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3320" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3320" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3321" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3321" s="2" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C3321" s="2" t="s">
+        <v>3121</v>
+      </c>
     </row>
     <row r="3322" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3322" s="2"/>
       <c r="C3322" s="2"/>
     </row>
-    <row r="3323" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3323" s="2"/>
-      <c r="C3323" s="2"/>
+    <row r="3323" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3323" s="3" t="s">
+        <v>3122</v>
+      </c>
+      <c r="C3323" s="2" t="s">
+        <v>3123</v>
+      </c>
     </row>
     <row r="3324" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3324" s="2"/>
       <c r="C3324" s="2"/>
     </row>
-    <row r="3325" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3325" s="2"/>
-      <c r="C3325" s="2"/>
-    </row>
-    <row r="3326" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3326" s="2"/>
-      <c r="C3326" s="2"/>
-    </row>
-    <row r="3327" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3327" s="2"/>
-      <c r="C3327" s="2"/>
-    </row>
-    <row r="3328" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3328" s="2"/>
-      <c r="C3328" s="2"/>
+    <row r="3325" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3325" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3325" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3326" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3326" s="2" t="s">
+        <v>3124</v>
+      </c>
+      <c r="C3326" s="2" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="3327" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3327" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3327" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3328" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3328" s="2" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C3328" s="2" t="s">
+        <v>3127</v>
+      </c>
     </row>
     <row r="3329" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3329" s="2"/>
       <c r="C3329" s="2"/>
     </row>
-    <row r="3330" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3330" s="2"/>
-      <c r="C3330" s="2"/>
+    <row r="3330" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3330" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C3330" s="2" t="s">
+        <v>3129</v>
+      </c>
     </row>
     <row r="3331" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3331" s="2"/>
       <c r="C3331" s="2"/>
     </row>
-    <row r="3332" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3332" s="2"/>
-      <c r="C3332" s="2"/>
-    </row>
-    <row r="3333" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3333" s="2"/>
-      <c r="C3333" s="2"/>
-    </row>
-    <row r="3334" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3334" s="2"/>
-      <c r="C3334" s="2"/>
-    </row>
-    <row r="3335" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3335" s="2"/>
-      <c r="C3335" s="2"/>
+    <row r="3332" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3332" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3332" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3333" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3333" s="2" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C3333" s="2" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="3334" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3334" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3334" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3335" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3335" s="2" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C3335" s="2" t="s">
+        <v>3133</v>
+      </c>
     </row>
     <row r="3336" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3336" s="2"/>
       <c r="C3336" s="2"/>
     </row>
-    <row r="3337" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3337" s="2"/>
-      <c r="C3337" s="2"/>
+    <row r="3337" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3337" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="C3337" s="2" t="s">
+        <v>3135</v>
+      </c>
     </row>
     <row r="3338" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3338" s="2"/>
       <c r="C3338" s="2"/>
     </row>
-    <row r="3339" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3339" s="2"/>
-      <c r="C3339" s="2"/>
-    </row>
-    <row r="3340" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3340" s="2"/>
-      <c r="C3340" s="2"/>
-    </row>
-    <row r="3341" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3341" s="2"/>
-      <c r="C3341" s="2"/>
-    </row>
-    <row r="3342" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3342" s="2"/>
-      <c r="C3342" s="2"/>
+    <row r="3339" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3339" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3339" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3340" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3340" s="2" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C3340" s="2" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="3341" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3341" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3341" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3342" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3342" s="2" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C3342" s="2" t="s">
+        <v>3139</v>
+      </c>
     </row>
     <row r="3343" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3343" s="2"/>
       <c r="C3343" s="2"/>
     </row>
-    <row r="3344" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3344" s="2"/>
-      <c r="C3344" s="2"/>
+    <row r="3344" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3344" s="3" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C3344" s="2" t="s">
+        <v>3141</v>
+      </c>
     </row>
     <row r="3345" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3345" s="2"/>
       <c r="C3345" s="2"/>
     </row>
-    <row r="3346" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3346" s="2"/>
-      <c r="C3346" s="2"/>
-    </row>
-    <row r="3347" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3347" s="2"/>
-      <c r="C3347" s="2"/>
-    </row>
-    <row r="3348" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3348" s="2"/>
-      <c r="C3348" s="2"/>
-    </row>
-    <row r="3349" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3349" s="2"/>
-      <c r="C3349" s="2"/>
+    <row r="3346" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3346" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3346" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3347" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3347" s="2" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C3347" s="2" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="3348" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3348" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3348" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3349" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3349" s="2" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C3349" s="2" t="s">
+        <v>3145</v>
+      </c>
     </row>
     <row r="3350" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3350" s="2"/>
       <c r="C3350" s="2"/>
     </row>
-    <row r="3351" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3351" s="2"/>
-      <c r="C3351" s="2"/>
+    <row r="3351" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3351" s="3" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C3351" s="2" t="s">
+        <v>3147</v>
+      </c>
     </row>
     <row r="3352" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3352" s="2"/>
       <c r="C3352" s="2"/>
     </row>
-    <row r="3353" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3353" s="2"/>
-      <c r="C3353" s="2"/>
-    </row>
-    <row r="3354" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3354" s="2"/>
-      <c r="C3354" s="2"/>
-    </row>
-    <row r="3355" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3355" s="2"/>
-      <c r="C3355" s="2"/>
-    </row>
-    <row r="3356" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3356" s="2"/>
-      <c r="C3356" s="2"/>
+    <row r="3353" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3353" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3353" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3354" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3354" s="2" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C3354" s="2" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="3355" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3355" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3355" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3356" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3356" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C3356" s="2" t="s">
+        <v>3150</v>
+      </c>
     </row>
     <row r="3357" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3357" s="2"/>
       <c r="C3357" s="2"/>
     </row>
-    <row r="3358" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3358" s="2"/>
-      <c r="C3358" s="2"/>
+    <row r="3358" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3358" s="3" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C3358" s="2" t="s">
+        <v>3152</v>
+      </c>
     </row>
     <row r="3359" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3359" s="2"/>
       <c r="C3359" s="2"/>
     </row>
-    <row r="3360" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3360" s="2"/>
-      <c r="C3360" s="2"/>
-    </row>
-    <row r="3361" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3361" s="2"/>
-      <c r="C3361" s="2"/>
-    </row>
-    <row r="3362" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3362" s="2"/>
-      <c r="C3362" s="2"/>
-    </row>
-    <row r="3363" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3363" s="2"/>
-      <c r="C3363" s="2"/>
+    <row r="3360" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3360" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3360" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3361" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3361" s="2" t="s">
+        <v>3153</v>
+      </c>
+      <c r="C3361" s="2" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="3362" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3362" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3362" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3363" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3363" s="2" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C3363" s="2" t="s">
+        <v>3156</v>
+      </c>
     </row>
     <row r="3364" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3364" s="2"/>
       <c r="C3364" s="2"/>
     </row>
-    <row r="3365" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3365" s="2"/>
-      <c r="C3365" s="2"/>
+    <row r="3365" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3365" s="3" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C3365" s="2" t="s">
+        <v>3158</v>
+      </c>
     </row>
     <row r="3366" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3366" s="2"/>
       <c r="C3366" s="2"/>
     </row>
-    <row r="3367" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3367" s="2"/>
-      <c r="C3367" s="2"/>
-    </row>
-    <row r="3368" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3368" s="2"/>
-      <c r="C3368" s="2"/>
-    </row>
-    <row r="3369" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3369" s="2"/>
-      <c r="C3369" s="2"/>
-    </row>
-    <row r="3370" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3370" s="2"/>
-      <c r="C3370" s="2"/>
+    <row r="3367" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3367" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3367" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3368" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3368" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C3368" s="2" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="3369" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3369" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3369" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3370" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3370" s="2" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C3370" s="2" t="s">
+        <v>3162</v>
+      </c>
     </row>
     <row r="3371" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3371" s="2"/>
       <c r="C3371" s="2"/>
     </row>
-    <row r="3372" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3372" s="2"/>
-      <c r="C3372" s="2"/>
+    <row r="3372" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3372" s="3" t="s">
+        <v>3163</v>
+      </c>
+      <c r="C3372" s="2" t="s">
+        <v>3164</v>
+      </c>
     </row>
     <row r="3373" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3373" s="2"/>
       <c r="C3373" s="2"/>
     </row>
-    <row r="3374" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3374" s="2"/>
-      <c r="C3374" s="2"/>
-    </row>
-    <row r="3375" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3375" s="2"/>
-      <c r="C3375" s="2"/>
-    </row>
-    <row r="3376" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3376" s="2"/>
-      <c r="C3376" s="2"/>
-    </row>
-    <row r="3377" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3377" s="2"/>
-      <c r="C3377" s="2"/>
+    <row r="3374" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3374" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3374" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3375" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3375" s="2" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C3375" s="2" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="3376" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3376" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3376" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3377" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3377" s="2" t="s">
+        <v>3167</v>
+      </c>
+      <c r="C3377" s="2" t="s">
+        <v>3168</v>
+      </c>
     </row>
     <row r="3378" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3378" s="2"/>
       <c r="C3378" s="2"/>
     </row>
-    <row r="3379" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3379" s="2"/>
-      <c r="C3379" s="2"/>
+    <row r="3379" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3379" s="3" t="s">
+        <v>3169</v>
+      </c>
+      <c r="C3379" s="2" t="s">
+        <v>3170</v>
+      </c>
     </row>
     <row r="3380" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3380" s="2"/>
       <c r="C3380" s="2"/>
     </row>
-    <row r="3381" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3381" s="2"/>
-      <c r="C3381" s="2"/>
-    </row>
-    <row r="3382" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3382" s="2"/>
-      <c r="C3382" s="2"/>
-    </row>
-    <row r="3383" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3383" s="2"/>
-      <c r="C3383" s="2"/>
-    </row>
-    <row r="3384" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3384" s="2"/>
-      <c r="C3384" s="2"/>
+    <row r="3381" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3381" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3381" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3382" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3382" s="2" t="s">
+        <v>3171</v>
+      </c>
+      <c r="C3382" s="2" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="3383" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3383" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3383" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3384" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3384" s="2" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C3384" s="2" t="s">
+        <v>3174</v>
+      </c>
     </row>
     <row r="3385" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3385" s="2"/>
       <c r="C3385" s="2"/>
     </row>
-    <row r="3386" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3386" s="2"/>
-      <c r="C3386" s="2"/>
+    <row r="3386" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3386" s="3" t="s">
+        <v>3175</v>
+      </c>
+      <c r="C3386" s="2" t="s">
+        <v>3176</v>
+      </c>
     </row>
     <row r="3387" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3387" s="2"/>
       <c r="C3387" s="2"/>
     </row>
-    <row r="3388" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3388" s="2"/>
-      <c r="C3388" s="2"/>
-    </row>
-    <row r="3389" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3389" s="2"/>
-      <c r="C3389" s="2"/>
-    </row>
-    <row r="3390" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3390" s="2"/>
-      <c r="C3390" s="2"/>
-    </row>
-    <row r="3391" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3391" s="2"/>
-      <c r="C3391" s="2"/>
+    <row r="3388" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3388" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3388" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3389" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3389" s="2" t="s">
+        <v>3177</v>
+      </c>
+      <c r="C3389" s="2" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="3390" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3390" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3390" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3391" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3391" s="2" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C3391" s="2" t="s">
+        <v>3180</v>
+      </c>
     </row>
     <row r="3392" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3392" s="2"/>
       <c r="C3392" s="2"/>
     </row>
-    <row r="3393" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3393" s="2"/>
-      <c r="C3393" s="2"/>
+    <row r="3393" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3393" s="3" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C3393" s="2" t="s">
+        <v>3182</v>
+      </c>
     </row>
     <row r="3394" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3394" s="2"/>
       <c r="C3394" s="2"/>
     </row>
-    <row r="3395" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3395" s="2"/>
-      <c r="C3395" s="2"/>
-    </row>
-    <row r="3396" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3396" s="2"/>
-      <c r="C3396" s="2"/>
-    </row>
-    <row r="3397" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3397" s="2"/>
-      <c r="C3397" s="2"/>
-    </row>
-    <row r="3398" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3398" s="2"/>
-      <c r="C3398" s="2"/>
+    <row r="3395" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3395" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3395" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3396" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3396" s="2" t="s">
+        <v>3183</v>
+      </c>
+      <c r="C3396" s="2" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="3397" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3397" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3397" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3398" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3398" s="2" t="s">
+        <v>3185</v>
+      </c>
+      <c r="C3398" s="2" t="s">
+        <v>3186</v>
+      </c>
     </row>
     <row r="3399" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3399" s="2"/>
       <c r="C3399" s="2"/>
     </row>
-    <row r="3400" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3400" s="2"/>
-      <c r="C3400" s="2"/>
+    <row r="3400" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3400" s="3" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C3400" s="2" t="s">
+        <v>3188</v>
+      </c>
     </row>
     <row r="3401" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3401" s="2"/>
       <c r="C3401" s="2"/>
     </row>
-    <row r="3402" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3402" s="2"/>
-      <c r="C3402" s="2"/>
+    <row r="3402" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3402" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3402" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3403" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3403" s="2" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C3403" s="2" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="3404" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3404" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3404" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3405" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3405" s="2" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C3405" s="2" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="3406" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3406" s="2"/>
+      <c r="C3406" s="2"/>
+    </row>
+    <row r="3407" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3407" s="2" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C3407" s="2" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="3408" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3408" s="2"/>
+      <c r="C3408" s="2"/>
+    </row>
+    <row r="3409" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3409" s="2"/>
+      <c r="C3409" s="2"/>
+    </row>
+    <row r="3410" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3410" s="16" t="s">
+        <v>3411</v>
+      </c>
+      <c r="C3410" s="2" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="3411" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3411" s="2"/>
+      <c r="C3411" s="2"/>
+    </row>
+    <row r="3412" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3412" s="2" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C3412" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="3413" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3413" s="2"/>
+      <c r="C3413" s="2"/>
+    </row>
+    <row r="3414" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3414" s="3" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C3414" s="2" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="3415" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3415" s="2"/>
+      <c r="C3415" s="2"/>
+    </row>
+    <row r="3416" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3416" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3416" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3417" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3417" s="2" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C3417" s="2" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="3418" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3418" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3418" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3419" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3419" s="2" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C3419" s="2" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="3420" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3420" s="2"/>
+      <c r="C3420" s="2"/>
+    </row>
+    <row r="3421" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3421" s="3" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C3421" s="2" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="3422" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3422" s="2"/>
+      <c r="C3422" s="2"/>
+    </row>
+    <row r="3423" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3423" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3423" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3424" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3424" s="2" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C3424" s="2" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="3425" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3425" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3425" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3426" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3426" s="2" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C3426" s="2" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="3427" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3427" s="2"/>
+      <c r="C3427" s="2"/>
+    </row>
+    <row r="3428" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3428" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C3428" s="2" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="3429" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3429" s="2"/>
+      <c r="C3429" s="2"/>
+    </row>
+    <row r="3430" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3430" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3430" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3431" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3431" s="2" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C3431" s="2" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="3432" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3432" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3432" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3433" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3433" s="2" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C3433" s="2" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="3434" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3434" s="2"/>
+      <c r="C3434" s="2"/>
+    </row>
+    <row r="3435" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3435" s="3" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C3435" s="2" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="3436" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3436" s="2"/>
+      <c r="C3436" s="2"/>
+    </row>
+    <row r="3437" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3437" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3437" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3438" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3438" s="2" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C3438" s="2" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="3439" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3439" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3439" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3440" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3440" s="2" t="s">
+        <v>3218</v>
+      </c>
+      <c r="C3440" s="2" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="3441" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3441" s="2"/>
+      <c r="C3441" s="2"/>
+    </row>
+    <row r="3442" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3442" s="3" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C3442" s="2" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="3443" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3443" s="2"/>
+      <c r="C3443" s="2"/>
+    </row>
+    <row r="3444" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3444" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3444" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3445" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3445" s="2" t="s">
+        <v>3222</v>
+      </c>
+      <c r="C3445" s="2" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="3446" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3446" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3446" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3447" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3447" s="2" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C3447" s="2" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="3448" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3448" s="2"/>
+      <c r="C3448" s="2"/>
+    </row>
+    <row r="3449" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3449" s="3" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C3449" s="2" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="3450" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3450" s="2"/>
+      <c r="C3450" s="2"/>
+    </row>
+    <row r="3451" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3451" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3451" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3452" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3452" s="2" t="s">
+        <v>3228</v>
+      </c>
+      <c r="C3452" s="2" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="3453" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3453" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3453" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3454" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3454" s="2" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C3454" s="2" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3455" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3455" s="2"/>
+      <c r="C3455" s="2"/>
+    </row>
+    <row r="3456" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3456" s="3" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C3456" s="2" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="3457" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3457" s="2"/>
+      <c r="C3457" s="2"/>
+    </row>
+    <row r="3458" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3458" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3458" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3459" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3459" s="2" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C3459" s="2" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="3460" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3460" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3460" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3461" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3461" s="2" t="s">
+        <v>3108</v>
+      </c>
+      <c r="C3461" s="2" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="3462" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3462" s="2"/>
+      <c r="C3462" s="2"/>
+    </row>
+    <row r="3463" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3463" s="3" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C3463" s="2" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="3464" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3464" s="2"/>
+      <c r="C3464" s="2"/>
+    </row>
+    <row r="3465" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3465" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3465" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3466" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3466" s="2" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C3466" s="2" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="3467" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3467" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3467" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3468" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3468" s="2" t="s">
+        <v>3240</v>
+      </c>
+      <c r="C3468" s="2" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="3469" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3469" s="2"/>
+      <c r="C3469" s="2"/>
+    </row>
+    <row r="3470" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3470" s="3" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C3470" s="2" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="3471" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3471" s="2"/>
+      <c r="C3471" s="2"/>
+    </row>
+    <row r="3472" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3472" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3472" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3473" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3473" s="2" t="s">
+        <v>3242</v>
+      </c>
+      <c r="C3473" s="2" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="3474" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3474" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3474" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3475" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3475" s="2" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C3475" s="2" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="3476" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3476" s="2"/>
+      <c r="C3476" s="2"/>
+    </row>
+    <row r="3477" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3477" s="3" t="s">
+        <v>3246</v>
+      </c>
+      <c r="C3477" s="2" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="3478" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3478" s="2"/>
+      <c r="C3478" s="2"/>
+    </row>
+    <row r="3479" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3479" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3479" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3480" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3480" s="2" t="s">
+        <v>3248</v>
+      </c>
+      <c r="C3480" s="2" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="3481" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3481" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3481" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3482" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3482" s="2" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C3482" s="2" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="3483" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3483" s="2"/>
+      <c r="C3483" s="2"/>
+    </row>
+    <row r="3484" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3484" s="3" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C3484" s="2" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="3485" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3485" s="2"/>
+      <c r="C3485" s="2"/>
+    </row>
+    <row r="3486" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3486" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3486" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3487" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3487" s="2" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C3487" s="2" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="3488" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3488" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3488" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3489" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3489" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="C3489" s="2" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="3490" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3490" s="2"/>
+      <c r="C3490" s="2"/>
+    </row>
+    <row r="3491" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3491" s="3" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C3491" s="2" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="3492" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3492" s="2"/>
+      <c r="C3492" s="2"/>
+    </row>
+    <row r="3493" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3493" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3493" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3494" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3494" s="2" t="s">
+        <v>3259</v>
+      </c>
+      <c r="C3494" s="2" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="3495" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3495" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3495" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3496" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3496" s="2" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C3496" s="2" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="3497" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3497" s="2"/>
+      <c r="C3497" s="2"/>
+    </row>
+    <row r="3498" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3498" s="3" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C3498" s="2" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="3499" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3499" s="2"/>
+      <c r="C3499" s="2"/>
+    </row>
+    <row r="3500" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3500" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3500" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3501" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3501" s="2" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C3501" s="2" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="3502" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3502" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3502" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3503" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3503" s="2" t="s">
+        <v>3267</v>
+      </c>
+      <c r="C3503" s="2" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="3504" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3504" s="2"/>
+      <c r="C3504" s="2"/>
+    </row>
+    <row r="3505" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3505" s="3" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C3505" s="2" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="3506" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3506" s="2"/>
+      <c r="C3506" s="2"/>
+    </row>
+    <row r="3507" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3507" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3507" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3508" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3508" s="2" t="s">
+        <v>3271</v>
+      </c>
+      <c r="C3508" s="2" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="3509" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3509" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3509" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3510" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3510" s="2" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C3510" s="2" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="3511" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3511" s="2"/>
+      <c r="C3511" s="2"/>
+    </row>
+    <row r="3512" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3512" s="3" t="s">
+        <v>3275</v>
+      </c>
+      <c r="C3512" s="2" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="3513" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3513" s="2"/>
+      <c r="C3513" s="2"/>
+    </row>
+    <row r="3514" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3514" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3514" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3515" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3515" s="2" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C3515" s="2" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="3516" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3516" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3516" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3517" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3517" s="2" t="s">
+        <v>3279</v>
+      </c>
+      <c r="C3517" s="2" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="3518" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3518" s="2"/>
+      <c r="C3518" s="2"/>
+    </row>
+    <row r="3519" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3519" s="3" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C3519" s="2" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="3520" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3520" s="2"/>
+      <c r="C3520" s="2"/>
+    </row>
+    <row r="3521" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3521" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3521" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3522" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3522" s="2" t="s">
+        <v>3283</v>
+      </c>
+      <c r="C3522" s="2" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="3523" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3523" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3523" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3524" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3524" s="2" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C3524" s="2" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="3525" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3525" s="2"/>
+      <c r="C3525" s="2"/>
+    </row>
+    <row r="3526" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3526" s="3" t="s">
+        <v>3285</v>
+      </c>
+      <c r="C3526" s="2" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="3527" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3527" s="2"/>
+      <c r="C3527" s="2"/>
+    </row>
+    <row r="3528" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3528" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3528" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3529" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3529" s="2" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C3529" s="2" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="3530" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3530" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3530" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3531" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3531" s="2" t="s">
+        <v>3289</v>
+      </c>
+      <c r="C3531" s="2" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="3532" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3532" s="2"/>
+      <c r="C3532" s="2"/>
+    </row>
+    <row r="3533" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3533" s="3" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C3533" s="2" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="3534" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3534" s="2"/>
+      <c r="C3534" s="2"/>
+    </row>
+    <row r="3535" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3535" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3535" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3536" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3536" s="2" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C3536" s="2" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="3537" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3537" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3537" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3538" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3538" s="2" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C3538" s="2" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="3539" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3539" s="2"/>
+      <c r="C3539" s="2"/>
+    </row>
+    <row r="3540" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3540" s="2" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C3540" s="2" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="3541" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3541" s="2"/>
+      <c r="C3541" s="2"/>
+    </row>
+    <row r="3542" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3542" s="2"/>
+      <c r="C3542" s="2"/>
+    </row>
+    <row r="3543" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3543" s="16" t="s">
+        <v>3412</v>
+      </c>
+      <c r="C3543" s="2" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="3544" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3544" s="2"/>
+      <c r="C3544" s="2"/>
+    </row>
+    <row r="3545" spans="2:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="B3545" s="2" t="s">
+        <v>3300</v>
+      </c>
+      <c r="C3545" s="2" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="3546" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3546" s="2"/>
+      <c r="C3546" s="2"/>
+    </row>
+    <row r="3547" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3547" s="3" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C3547" s="2" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="3548" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3548" s="2"/>
+      <c r="C3548" s="2"/>
+    </row>
+    <row r="3549" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3549" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3549" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3550" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3550" s="2" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C3550" s="2" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="3551" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3551" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3551" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3552" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3552" s="2" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C3552" s="2" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="3553" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3553" s="2"/>
+      <c r="C3553" s="2"/>
+    </row>
+    <row r="3554" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3554" s="3" t="s">
+        <v>3308</v>
+      </c>
+      <c r="C3554" s="2" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="3555" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3555" s="2"/>
+      <c r="C3555" s="2"/>
+    </row>
+    <row r="3556" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3556" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3556" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3557" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3557" s="2" t="s">
+        <v>3310</v>
+      </c>
+      <c r="C3557" s="2" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="3558" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3558" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3558" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3559" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3559" s="2" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C3559" s="2" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="3560" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3560" s="2"/>
+      <c r="C3560" s="2"/>
+    </row>
+    <row r="3561" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3561" s="3" t="s">
+        <v>3312</v>
+      </c>
+      <c r="C3561" s="2" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="3562" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3562" s="2"/>
+      <c r="C3562" s="2"/>
+    </row>
+    <row r="3563" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3563" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3563" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3564" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3564" s="2" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C3564" s="2" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="3565" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3565" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3565" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3566" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3566" s="2" t="s">
+        <v>3314</v>
+      </c>
+      <c r="C3566" s="2" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="3567" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3567" s="2"/>
+      <c r="C3567" s="2"/>
+    </row>
+    <row r="3568" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3568" s="3" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C3568" s="2" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="3569" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3569" s="2"/>
+      <c r="C3569" s="2"/>
+    </row>
+    <row r="3570" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3570" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3570" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3571" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3571" s="2" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C3571" s="2" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="3572" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3572" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3572" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3573" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3573" s="2" t="s">
+        <v>3316</v>
+      </c>
+      <c r="C3573" s="2" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="3574" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3574" s="2"/>
+      <c r="C3574" s="2"/>
+    </row>
+    <row r="3575" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3575" s="3" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C3575" s="2" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="3576" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3576" s="2"/>
+      <c r="C3576" s="2"/>
+    </row>
+    <row r="3577" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3577" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3577" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3578" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3578" s="2" t="s">
+        <v>3318</v>
+      </c>
+      <c r="C3578" s="2" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="3579" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3579" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3579" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3580" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3580" s="2" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C3580" s="2" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="3581" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3581" s="2"/>
+      <c r="C3581" s="2"/>
+    </row>
+    <row r="3582" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3582" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C3582" s="2" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="3583" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3583" s="2"/>
+      <c r="C3583" s="2"/>
+    </row>
+    <row r="3584" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3584" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3584" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3585" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3585" s="2" t="s">
+        <v>3323</v>
+      </c>
+      <c r="C3585" s="2" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="3586" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3586" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3586" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3587" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3587" s="2" t="s">
+        <v>3325</v>
+      </c>
+      <c r="C3587" s="2" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="3588" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3588" s="2"/>
+      <c r="C3588" s="2"/>
+    </row>
+    <row r="3589" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3589" s="3" t="s">
+        <v>3327</v>
+      </c>
+      <c r="C3589" s="2" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="3590" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3590" s="2"/>
+      <c r="C3590" s="2"/>
+    </row>
+    <row r="3591" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3591" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3591" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3592" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3592" s="2" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C3592" s="2" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="3593" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3593" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3593" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3594" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3594" s="2" t="s">
+        <v>3331</v>
+      </c>
+      <c r="C3594" s="2" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="3595" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3595" s="2"/>
+      <c r="C3595" s="2"/>
+    </row>
+    <row r="3596" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3596" s="3" t="s">
+        <v>3116</v>
+      </c>
+      <c r="C3596" s="2" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="3597" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3597" s="2"/>
+      <c r="C3597" s="2"/>
+    </row>
+    <row r="3598" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3598" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3598" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3599" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3599" s="2" t="s">
+        <v>3334</v>
+      </c>
+      <c r="C3599" s="2" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="3600" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3600" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3600" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3601" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3601" s="2" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C3601" s="2" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="3602" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3602" s="2"/>
+      <c r="C3602" s="2"/>
+    </row>
+    <row r="3603" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3603" s="3" t="s">
+        <v>3338</v>
+      </c>
+      <c r="C3603" s="2" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="3604" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3604" s="2"/>
+      <c r="C3604" s="2"/>
+    </row>
+    <row r="3605" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3605" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3605" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3606" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3606" s="2" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C3606" s="2" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="3607" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3607" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3607" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3608" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3608" s="2" t="s">
+        <v>3340</v>
+      </c>
+      <c r="C3608" s="2" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="3609" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3609" s="2"/>
+      <c r="C3609" s="2"/>
+    </row>
+    <row r="3610" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3610" s="3" t="s">
+        <v>3342</v>
+      </c>
+      <c r="C3610" s="2" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="3611" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3611" s="2"/>
+      <c r="C3611" s="2"/>
+    </row>
+    <row r="3612" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3612" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3612" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3613" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3613" s="2" t="s">
+        <v>3344</v>
+      </c>
+      <c r="C3613" s="2" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="3614" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3614" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3614" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3615" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3615" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C3615" s="2" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3616" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3616" s="2"/>
+      <c r="C3616" s="2"/>
+    </row>
+    <row r="3617" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3617" s="3" t="s">
+        <v>3348</v>
+      </c>
+      <c r="C3617" s="2" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="3618" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3618" s="2"/>
+      <c r="C3618" s="2"/>
+    </row>
+    <row r="3619" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3619" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3619" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3620" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3620" s="2" t="s">
+        <v>3350</v>
+      </c>
+      <c r="C3620" s="2" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="3621" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3621" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3621" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3622" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3622" s="2" t="s">
+        <v>3352</v>
+      </c>
+      <c r="C3622" s="2" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="3623" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3623" s="2"/>
+      <c r="C3623" s="2"/>
+    </row>
+    <row r="3624" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3624" s="3" t="s">
+        <v>3354</v>
+      </c>
+      <c r="C3624" s="2" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="3625" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3625" s="2"/>
+      <c r="C3625" s="2"/>
+    </row>
+    <row r="3626" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3626" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3626" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3627" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3627" s="2" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C3627" s="2" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="3628" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3628" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3628" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3629" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3629" s="2" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C3629" s="2" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="3630" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3630" s="2"/>
+      <c r="C3630" s="2"/>
+    </row>
+    <row r="3631" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3631" s="3" t="s">
+        <v>3360</v>
+      </c>
+      <c r="C3631" s="2" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="3632" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3632" s="2"/>
+      <c r="C3632" s="2"/>
+    </row>
+    <row r="3633" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3633" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3633" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3634" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3634" s="2" t="s">
+        <v>3362</v>
+      </c>
+      <c r="C3634" s="2" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="3635" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3635" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3635" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3636" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3636" s="2" t="s">
+        <v>3364</v>
+      </c>
+      <c r="C3636" s="2" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="3637" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3637" s="2"/>
+      <c r="C3637" s="2"/>
+    </row>
+    <row r="3638" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3638" s="3" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C3638" s="2" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="3639" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3639" s="2"/>
+      <c r="C3639" s="2"/>
+    </row>
+    <row r="3640" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3640" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3640" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3641" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3641" s="2" t="s">
+        <v>3368</v>
+      </c>
+      <c r="C3641" s="2" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="3642" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3642" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3642" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3643" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3643" s="2" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C3643" s="2" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="3644" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3644" s="2"/>
+      <c r="C3644" s="2"/>
+    </row>
+    <row r="3645" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3645" s="3" t="s">
+        <v>3372</v>
+      </c>
+      <c r="C3645" s="2" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="3646" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3646" s="2"/>
+      <c r="C3646" s="2"/>
+    </row>
+    <row r="3647" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3647" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3647" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3648" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3648" s="2" t="s">
+        <v>3374</v>
+      </c>
+      <c r="C3648" s="2" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="3649" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3649" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3649" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3650" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3650" s="2" t="s">
+        <v>3376</v>
+      </c>
+      <c r="C3650" s="2" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="3651" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3651" s="2"/>
+      <c r="C3651" s="2"/>
+    </row>
+    <row r="3652" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3652" s="3" t="s">
+        <v>3378</v>
+      </c>
+      <c r="C3652" s="2" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="3653" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3653" s="2"/>
+      <c r="C3653" s="2"/>
+    </row>
+    <row r="3654" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3654" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3654" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3655" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3655" s="2" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C3655" s="2" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="3656" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3656" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3656" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3657" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3657" s="2" t="s">
+        <v>3382</v>
+      </c>
+      <c r="C3657" s="2" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="3658" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3658" s="2"/>
+      <c r="C3658" s="2"/>
+    </row>
+    <row r="3659" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3659" s="3" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C3659" s="2" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="3660" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3660" s="2"/>
+      <c r="C3660" s="2"/>
+    </row>
+    <row r="3661" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3661" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3661" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3662" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3662" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="C3662" s="2" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="3663" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3663" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3663" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3664" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3664" s="2" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C3664" s="2" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="3665" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3665" s="2"/>
+      <c r="C3665" s="2"/>
+    </row>
+    <row r="3666" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3666" s="3" t="s">
+        <v>3389</v>
+      </c>
+      <c r="C3666" s="2" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="3667" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3667" s="2"/>
+      <c r="C3667" s="2"/>
+    </row>
+    <row r="3668" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3668" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3668" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3669" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3669" s="2" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C3669" s="2" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="3670" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3670" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3670" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3671" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3671" s="2" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C3671" s="2" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="3672" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3672" s="2"/>
+      <c r="C3672" s="2"/>
+    </row>
+    <row r="3673" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3673" s="3" t="s">
+        <v>3393</v>
+      </c>
+      <c r="C3673" s="2" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="3674" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3674" s="2"/>
+      <c r="C3674" s="2"/>
+    </row>
+    <row r="3675" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3675" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3675" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3676" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3676" s="2" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C3676" s="2" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="3677" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3677" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3677" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3678" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3678" s="2" t="s">
+        <v>3397</v>
+      </c>
+      <c r="C3678" s="2" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="3679" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3679" s="2"/>
+      <c r="C3679" s="2"/>
+    </row>
+    <row r="3680" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3680" s="3" t="s">
+        <v>3399</v>
+      </c>
+      <c r="C3680" s="2" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="3681" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3681" s="2"/>
+      <c r="C3681" s="2"/>
+    </row>
+    <row r="3682" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3682" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3682" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3683" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3683" s="2" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C3683" s="2" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="3684" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3684" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3684" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3685" spans="2:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="B3685" s="2" t="s">
+        <v>3402</v>
+      </c>
+      <c r="C3685" s="2" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="3686" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3686" s="2"/>
+      <c r="C3686" s="2"/>
+    </row>
+    <row r="3687" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3687" s="2" t="s">
+        <v>3404</v>
+      </c>
+      <c r="C3687" s="2" t="s">
+        <v>3405</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
